--- a/辅助总表/技能配置表/怪物技能配置表.xlsx
+++ b/辅助总表/技能配置表/怪物技能配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="2620" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="16" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="499">
   <si>
     <t>(SkillMaster)</t>
   </si>
@@ -3548,6 +3548,564 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体大治疗</t>
+    <rPh sb="0" eb="1">
+      <t>qun't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'gu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯树妖</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯藤蔓怪</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>teng'man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击黄蜂怪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huang'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯藤蔓怪</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>teng'm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯树妖</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'yao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，攻击者中毒</t>
+    <rPh sb="0" eb="1">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'j'zhe</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhong'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤后</t>
+    <rPh sb="0" eb="1">
+      <t>shou'shang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超治疗小花精</t>
+    <rPh sb="0" eb="1">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'liao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合攻击增加</t>
+    <rPh sb="0" eb="1">
+      <t>mei'hui'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zeng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击比率</t>
+    <rPh sb="0" eb="1">
+      <t>gong'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bi'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻10</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻20</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻30</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻40</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻50</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻60</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻70</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻80</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻90</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻100</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻150</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻200</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gon</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合加攻200</t>
+    <rPh sb="0" eb="1">
+      <t>mei'hui'h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia'gong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束加攻200</t>
+    <rPh sb="0" eb="1">
+      <t>hui'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'hsu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久免疫流血</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liu'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久免疫眩晕</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xuan'yun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久免疫混乱</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hun'l</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久免疫负面状态</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'mia</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久免疫负面状态</t>
+    <rPh sb="0" eb="1">
+      <t>yong'jiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu'm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuang't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>免疫流血，眩晕，混乱</t>
+    <rPh sb="0" eb="1">
+      <t>mian'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xuan'yun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>hun'l</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3987,15 +4545,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ8" sqref="AQ8"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="21"/>
-    <col min="4" max="6" width="10.83203125" style="29"/>
+    <col min="1" max="2" width="10.83203125" style="21"/>
+    <col min="3" max="3" width="15.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="29"/>
     <col min="7" max="7" width="20.6640625" style="21" customWidth="1"/>
     <col min="8" max="12" width="19.5" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="75.5" style="21" hidden="1" customWidth="1"/>
@@ -5225,7 +5786,7 @@
     </row>
     <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="21" t="str">
-        <f t="shared" ref="A12" si="30">C12</f>
+        <f t="shared" ref="A12:A16" si="30">C12</f>
         <v>藤蔓怪</v>
       </c>
       <c r="B12" s="21">
@@ -5262,7 +5823,7 @@
         <v/>
       </c>
       <c r="M12" s="22" t="str">
-        <f t="shared" ref="M12" si="31">"{"&amp;IF(G12="","",G$1&amp;G12)&amp;IF(H12="","",H$1&amp;H12)&amp;IF(I12="","",I$1&amp;I12)&amp;IF(J12="","",J$1&amp;J12)&amp;IF(K12="","",K$1&amp;K12)&amp;IF(L12="","",L$1&amp;L12)&amp;"}"</f>
+        <f t="shared" ref="M12:M16" si="31">"{"&amp;IF(G12="","",G$1&amp;G12)&amp;IF(H12="","",H$1&amp;H12)&amp;IF(I12="","",I$1&amp;I12)&amp;IF(J12="","",J$1&amp;J12)&amp;IF(K12="","",K$1&amp;K12)&amp;IF(L12="","",L$1&amp;L12)&amp;"}"</f>
         <v>{"master1":20009001,"master2":20009002}</v>
       </c>
       <c r="N12" s="22" t="str">
@@ -5278,19 +5839,19 @@
         <v/>
       </c>
       <c r="Q12" s="22">
-        <f t="shared" ref="Q12" si="32">B12</f>
+        <f t="shared" ref="Q12:Q16" si="32">B12</f>
         <v>9</v>
       </c>
       <c r="R12" s="22" t="str">
-        <f t="shared" ref="R12" si="33">AK12&amp;"|"&amp;AL12&amp;"|"&amp;AM12&amp;"|"&amp;AN12</f>
+        <f t="shared" ref="R12:R16" si="33">AK12&amp;"|"&amp;AL12&amp;"|"&amp;AM12&amp;"|"&amp;AN12</f>
         <v>eff_yixingguangquan|||</v>
       </c>
       <c r="S12" s="22" t="str">
-        <f t="shared" ref="S12" si="34">AO12&amp;"|"&amp;AP12&amp;"|"&amp;AQ12&amp;"|"&amp;AR12</f>
+        <f t="shared" ref="S12:S16" si="34">AO12&amp;"|"&amp;AP12&amp;"|"&amp;AQ12&amp;"|"&amp;AR12</f>
         <v>eff_sixingguangquan||eff_shufu|</v>
       </c>
       <c r="T12" s="22" t="str">
-        <f t="shared" ref="T12" si="35">AS12&amp;"|"&amp;AT12&amp;"|"&amp;AU12&amp;"|"&amp;AV12</f>
+        <f t="shared" ref="T12:T16" si="35">AS12&amp;"|"&amp;AT12&amp;"|"&amp;AU12&amp;"|"&amp;AV12</f>
         <v>|||</v>
       </c>
       <c r="U12" s="22"/>
@@ -5355,122 +5916,1057 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>超治疗小花精</v>
+      </c>
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>475</v>
+      </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="G13" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C13&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20010001</v>
+      </c>
+      <c r="H13" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C13&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20010002</v>
+      </c>
+      <c r="I13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C13&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(D13,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="K13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E13,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F13,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str">
+        <f t="shared" si="31"/>
+        <v>{"master1":20010001,"master2":20010002}</v>
+      </c>
+      <c r="N13" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G13,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O13" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H13,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>群体大治疗</v>
+      </c>
+      <c r="P13" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I13,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="R13" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S13" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>eff_erxingguangquan||eff_huichunshu|</v>
+      </c>
+      <c r="T13" s="22" t="str">
+        <f t="shared" si="35"/>
+        <v>|||</v>
+      </c>
       <c r="U13" s="22"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="V13" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA13"/>
+      <c r="AB13" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_erxingguangquan</v>
+      </c>
+      <c r="AP13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_huichunshu</v>
+      </c>
+      <c r="AR13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV13" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG13,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>毒躯蘑菇</v>
+      </c>
+      <c r="B14" s="21">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C14&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20011001</v>
+      </c>
+      <c r="H14" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C14&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20011002</v>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C14&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D14,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200003</v>
+      </c>
+      <c r="K14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E14,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F14,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str">
+        <f t="shared" si="31"/>
+        <v>{"master1":20011001,"master2":20011002,"slave1":200003}</v>
+      </c>
+      <c r="N14" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G14,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O14" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H14,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>群体中毒</v>
+      </c>
+      <c r="P14" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I14,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="22">
+        <f t="shared" si="32"/>
+        <v>11</v>
+      </c>
+      <c r="R14" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S14" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>eff_sixingguangquan||eff_zuzhou|</v>
+      </c>
+      <c r="T14" s="22" t="str">
+        <f t="shared" si="35"/>
+        <v>|||</v>
+      </c>
       <c r="U14" s="22"/>
+      <c r="V14" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="D15" s="24"/>
+      <c r="AB14" s="25" t="s">
+        <v>448</v>
+      </c>
+      <c r="AK14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_sixingguangquan</v>
+      </c>
+      <c r="AP14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_zuzhou</v>
+      </c>
+      <c r="AR14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV14" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG14,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>毒躯甲虫精</v>
+      </c>
+      <c r="B15" s="21">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>474</v>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="G15" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C15&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20012001</v>
+      </c>
+      <c r="H15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C15&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C15&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D15,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200003</v>
+      </c>
+      <c r="K15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E15,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F15,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="22" t="str">
+        <f t="shared" si="31"/>
+        <v>{"master1":20012001,"slave1":200003}</v>
+      </c>
+      <c r="N15" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G15,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O15" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H15,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I15,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="32"/>
+        <v>12</v>
+      </c>
+      <c r="R15" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S15" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>|||</v>
+      </c>
+      <c r="T15" s="22" t="str">
+        <f t="shared" si="35"/>
+        <v>|||</v>
+      </c>
       <c r="U15" s="22"/>
+      <c r="V15" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X15"/>
+      <c r="Y15" s="2"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AK15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV15" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG15,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="A16" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>毒躯树妖</v>
+      </c>
+      <c r="B16" s="21">
+        <v>13</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="G16" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C16&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20013001</v>
+      </c>
+      <c r="H16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C16&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C16&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D16,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200003</v>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E16,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F16,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="22" t="str">
+        <f t="shared" si="31"/>
+        <v>{"master1":20013001,"slave1":200003}</v>
+      </c>
+      <c r="N16" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G16,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O16" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H16,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I16,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="22">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="R16" s="22" t="str">
+        <f t="shared" si="33"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S16" s="22" t="str">
+        <f t="shared" si="34"/>
+        <v>|||</v>
+      </c>
+      <c r="T16" s="22" t="str">
+        <f t="shared" si="35"/>
+        <v>|||</v>
+      </c>
       <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D17" s="24"/>
+      <c r="V16" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="AK16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV16" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG16,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="str">
+        <f t="shared" ref="A17:A20" si="36">C17</f>
+        <v>毒躯藤蔓怪</v>
+      </c>
+      <c r="B17" s="21">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>474</v>
+      </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="G17" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C17&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20014001</v>
+      </c>
+      <c r="H17" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C17&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20014002</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C17&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D17,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200003</v>
+      </c>
+      <c r="K17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E17,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F17,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M17" s="22" t="str">
+        <f t="shared" ref="M17:M20" si="37">"{"&amp;IF(G17="","",G$1&amp;G17)&amp;IF(H17="","",H$1&amp;H17)&amp;IF(I17="","",I$1&amp;I17)&amp;IF(J17="","",J$1&amp;J17)&amp;IF(K17="","",K$1&amp;K17)&amp;IF(L17="","",L$1&amp;L17)&amp;"}"</f>
+        <v>{"master1":20014001,"master2":20014002,"slave1":200003}</v>
+      </c>
+      <c r="N17" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G17,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H17,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>单体眩晕</v>
+      </c>
+      <c r="P17" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I17,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="22">
+        <f t="shared" ref="Q17:Q20" si="38">B17</f>
+        <v>14</v>
+      </c>
+      <c r="R17" s="22" t="str">
+        <f t="shared" ref="R17:R20" si="39">AK17&amp;"|"&amp;AL17&amp;"|"&amp;AM17&amp;"|"&amp;AN17</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S17" s="22" t="str">
+        <f t="shared" ref="S17:S20" si="40">AO17&amp;"|"&amp;AP17&amp;"|"&amp;AQ17&amp;"|"&amp;AR17</f>
+        <v>eff_sixingguangquan||eff_shufu|</v>
+      </c>
+      <c r="T17" s="22" t="str">
+        <f t="shared" ref="T17:T20" si="41">AS17&amp;"|"&amp;AT17&amp;"|"&amp;AU17&amp;"|"&amp;AV17</f>
+        <v>|||</v>
+      </c>
       <c r="U17" s="22"/>
+      <c r="V17" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="15" t="s">
+        <v>347</v>
+      </c>
       <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-    </row>
-    <row r="18" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D18" s="24"/>
+      <c r="AB17" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_sixingguangquan</v>
+      </c>
+      <c r="AP17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_shufu</v>
+      </c>
+      <c r="AR17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV17" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG17,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="str">
+        <f t="shared" si="36"/>
+        <v>反击黄蜂怪</v>
+      </c>
+      <c r="B18" s="21">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>456</v>
+      </c>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="G18" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C18&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20015001</v>
+      </c>
+      <c r="H18" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C18&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20015002</v>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C18&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D18,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200002</v>
+      </c>
+      <c r="K18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E18,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F18,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>{"master1":20015001,"master2":20015002,"slave1":200002}</v>
+      </c>
+      <c r="N18" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G18,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H18,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>单体大伤害</v>
+      </c>
+      <c r="P18" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I18,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="22">
+        <f t="shared" si="38"/>
+        <v>15</v>
+      </c>
+      <c r="R18" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S18" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>eff_sixingguangquan||eff_kuanglongci|</v>
+      </c>
+      <c r="T18" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v>|||</v>
+      </c>
       <c r="U18" s="22"/>
-    </row>
-    <row r="19" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D19" s="24"/>
+      <c r="V18" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X18"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_sixingguangquan</v>
+      </c>
+      <c r="AP18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_kuanglongci</v>
+      </c>
+      <c r="AR18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV18" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG18,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="str">
+        <f t="shared" si="36"/>
+        <v>反击甲虫精</v>
+      </c>
+      <c r="B19" s="21">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>466</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>456</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="G19" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C19&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20016001</v>
+      </c>
+      <c r="H19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C19&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C19&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D19,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200002</v>
+      </c>
+      <c r="K19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(E19,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F19,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>{"master1":20016001,"slave1":200002}</v>
+      </c>
+      <c r="N19" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G19,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌单体</v>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H19,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I19,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="38"/>
+        <v>16</v>
+      </c>
+      <c r="R19" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="S19" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>|||</v>
+      </c>
+      <c r="T19" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v>|||</v>
+      </c>
       <c r="U19" s="22"/>
-    </row>
-    <row r="20" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="V19" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="X19"/>
+      <c r="Y19" s="2"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AK19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_yixingguangquan</v>
+      </c>
+      <c r="AL19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AN19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV19" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG19,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="str">
+        <f t="shared" si="36"/>
+        <v>世界boss莉莉丝</v>
+      </c>
+      <c r="B20" s="21">
+        <v>17</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>496</v>
+      </c>
       <c r="F20" s="24"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="G20" s="21">
+        <f>_xlfn.IFNA(VLOOKUP($C20&amp;G$3&amp;G$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v>20017001</v>
+      </c>
+      <c r="H20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C20&amp;H$3&amp;H$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP($C20&amp;I$3&amp;I$2,主动技能!$A:$B,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(D20,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200004</v>
+      </c>
+      <c r="K20" s="21">
+        <f>_xlfn.IFNA(VLOOKUP(E20,被动技能!$F:$G,2,FALSE),"")</f>
+        <v>200005</v>
+      </c>
+      <c r="L20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(F20,被动技能!$F:$G,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="22" t="str">
+        <f t="shared" si="37"/>
+        <v>{"master1":20017001,"slave1":200004,"slave2":200005}</v>
+      </c>
+      <c r="N20" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G20,主动技能!$B:$I,7,FALSE),"")</f>
+        <v>敌全体</v>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(H20,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="22" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I20,主动技能!$B:$I,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="22">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="R20" s="22" t="str">
+        <f t="shared" si="39"/>
+        <v>eff_sixingguangquan||eff_xuepiaoqianli|</v>
+      </c>
+      <c r="S20" s="22" t="str">
+        <f t="shared" si="40"/>
+        <v>|||</v>
+      </c>
+      <c r="T20" s="22" t="str">
+        <f t="shared" si="41"/>
+        <v>|||</v>
+      </c>
       <c r="U20" s="22"/>
-    </row>
-    <row r="21" spans="4:28" x14ac:dyDescent="0.15">
+      <c r="V20" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AK20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(V20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_sixingguangquan</v>
+      </c>
+      <c r="AL20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(W20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AM20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(X20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v>eff_xuepiaoqianli</v>
+      </c>
+      <c r="AN20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AO20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Z20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AP20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AQ20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AB20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AR20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AS20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AD20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AT20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AU20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AF20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="AV20" s="21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG20,动画对应!$B:$C,2,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -5484,7 +6980,7 @@
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
     </row>
-    <row r="22" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -5498,7 +6994,7 @@
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
     </row>
-    <row r="23" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -5512,7 +7008,7 @@
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
     </row>
-    <row r="24" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -5526,7 +7022,7 @@
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
     </row>
-    <row r="25" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -5540,7 +7036,7 @@
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
     </row>
-    <row r="26" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -5554,7 +7050,7 @@
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
     </row>
-    <row r="27" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -5568,7 +7064,7 @@
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
     </row>
-    <row r="28" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -5582,7 +7078,7 @@
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
     </row>
-    <row r="29" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -5596,7 +7092,7 @@
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
     </row>
-    <row r="30" spans="4:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -5929,17 +7425,17 @@
   <dimension ref="A1:CG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8"/>
-    <col min="3" max="3" width="12.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="8"/>
@@ -8277,7 +9773,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
-        <f t="shared" ref="A20" si="37">C20&amp;D20&amp;$E$6&amp;E20</f>
+        <f t="shared" ref="A20:A27" si="37">C20&amp;D20&amp;$E$6&amp;E20</f>
         <v>藤蔓怪主动技能2等级1</v>
       </c>
       <c r="B20" s="8">
@@ -8288,7 +9784,7 @@
         <v>457</v>
       </c>
       <c r="D20" s="8" t="str">
-        <f t="shared" ref="D20" si="38">$D$4&amp;F20</f>
+        <f t="shared" ref="D20:D27" si="38">$D$4&amp;F20</f>
         <v>主动技能2</v>
       </c>
       <c r="E20" s="8">
@@ -8336,11 +9832,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="16" t="str">
-        <f t="shared" ref="T20" si="39">IF(AQ20="","",AQ20)&amp;IF(AR20="","","|"&amp;AR20)&amp;IF(AS20="","","|"&amp;AS20)&amp;IF(AT20="","","|"&amp;AT20)&amp;IF(AU20="","","|"&amp;AU20)</f>
+        <f t="shared" ref="T20:T27" si="39">IF(AQ20="","",AQ20)&amp;IF(AR20="","","|"&amp;AR20)&amp;IF(AS20="","","|"&amp;AS20)&amp;IF(AT20="","","|"&amp;AT20)&amp;IF(AU20="","","|"&amp;AU20)</f>
         <v>300002:100:2:0</v>
       </c>
       <c r="U20" s="16" t="str">
-        <f t="shared" ref="U20" si="40">IF(AV20="","",AV20)&amp;IF(AW20="","","|"&amp;AW20)&amp;IF(AX20="","","|"&amp;AX20)&amp;IF(AY20="","","|"&amp;AY20)&amp;IF(AZ20="","","|"&amp;AZ20)</f>
+        <f t="shared" ref="U20:U27" si="40">IF(AV20="","",AV20)&amp;IF(AW20="","","|"&amp;AW20)&amp;IF(AX20="","","|"&amp;AX20)&amp;IF(AY20="","","|"&amp;AY20)&amp;IF(AZ20="","","|"&amp;AZ20)</f>
         <v/>
       </c>
       <c r="V20" s="16"/>
@@ -8425,159 +9921,1726 @@
       <c r="BA20" s="6"/>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H21" s="4"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="A21" t="str">
+        <f t="shared" si="37"/>
+        <v>超治疗小花精主动技能1等级1</v>
+      </c>
+      <c r="B21" s="8">
+        <f>20000000+G21*1000+F21</f>
+        <v>20010001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f>VLOOKUP(C21,角色!A:B,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I21" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17">
+        <v>100</v>
+      </c>
+      <c r="O21" s="17"/>
+      <c r="P21" s="16" t="str">
+        <f>VLOOKUP(G21,角色!Q:T,主动技能!F21+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>IF(L21="单体",1,IF(L21="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U21" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>100</v>
+      </c>
       <c r="AA21" s="16"/>
       <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ21" s="19">
+        <f>E21</f>
+        <v>1</v>
+      </c>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="16"/>
+      <c r="AM21" s="16"/>
+      <c r="AN21" s="16"/>
+      <c r="AO21" s="16"/>
+      <c r="AP21" s="16"/>
+      <c r="AQ21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AQ$5,VLOOKUP(AL21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AQ$5,VLOOKUP(AL21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AR$5,VLOOKUP(AM21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AR$5,VLOOKUP(AM21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AS$5,VLOOKUP(AN21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AS$5,VLOOKUP(AN21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AT$5,VLOOKUP(AO21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AT$5,VLOOKUP(AO21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AU$5,VLOOKUP(AP21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AU$5,VLOOKUP(AP21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AV$5,VLOOKUP(AL21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AV$5,VLOOKUP(AL21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AW$5,VLOOKUP(AM21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AW$5,VLOOKUP(AM21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AX$5,VLOOKUP(AN21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AX$5,VLOOKUP(AN21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AY$5,VLOOKUP(AO21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AY$5,VLOOKUP(AO21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ21" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK21=AZ$5,VLOOKUP(AP21,buff!$K:$L,2,FALSE),"")=0,"",IF($AK21=AZ$5,VLOOKUP(AP21,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA21" s="6"/>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H22" s="4"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="A22" t="str">
+        <f t="shared" si="37"/>
+        <v>超治疗小花精主动技能2等级1</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22" si="41">20000000+G22*1000+F22</f>
+        <v>20010002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8">
+        <f>VLOOKUP(C22,角色!A:B,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16" t="str">
+        <f>VLOOKUP(G22,角色!Q:T,主动技能!F22+1,FALSE)</f>
+        <v>eff_erxingguangquan||eff_huichunshu|</v>
+      </c>
+      <c r="Q22" s="16">
+        <f t="shared" ref="Q22" si="42">IF(L22="单体",1,IF(L22="全体",3,2))</f>
+        <v>2</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>300015:100:2:0</v>
+      </c>
+      <c r="U22" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Y22">
+        <v>50</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
       <c r="AA22" s="16"/>
       <c r="AB22" s="16"/>
+      <c r="AE22" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ22" s="19">
+        <f t="shared" ref="AJ22" si="43">E22</f>
+        <v>1</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AQ$5,VLOOKUP(AL22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AQ$5,VLOOKUP(AL22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v>300015:100:2:0</v>
+      </c>
+      <c r="AR22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AR$5,VLOOKUP(AM22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AR$5,VLOOKUP(AM22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AS$5,VLOOKUP(AN22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AS$5,VLOOKUP(AN22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AT$5,VLOOKUP(AO22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AT$5,VLOOKUP(AO22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AU$5,VLOOKUP(AP22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AU$5,VLOOKUP(AP22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AV$5,VLOOKUP(AL22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AV$5,VLOOKUP(AL22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AW$5,VLOOKUP(AM22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AW$5,VLOOKUP(AM22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AX$5,VLOOKUP(AN22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AX$5,VLOOKUP(AN22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AY$5,VLOOKUP(AO22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AY$5,VLOOKUP(AO22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ22" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK22=AZ$5,VLOOKUP(AP22,buff!$K:$L,2,FALSE),"")=0,"",IF($AK22=AZ$5,VLOOKUP(AP22,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H23" s="4"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="A23" t="str">
+        <f t="shared" si="37"/>
+        <v>毒躯蘑菇主动技能1等级1</v>
+      </c>
+      <c r="B23" s="8">
+        <f>20000000+G23*1000+F23</f>
+        <v>20011001</v>
+      </c>
+      <c r="C23" t="s">
+        <v>461</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <f>VLOOKUP(C23,角色!A:B,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I23" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17">
+        <v>100</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" s="16" t="str">
+        <f>VLOOKUP(G23,角色!Q:T,主动技能!F23+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>IF(L23="单体",1,IF(L23="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U23" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>100</v>
+      </c>
       <c r="AA23" s="16"/>
       <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ23" s="19">
+        <f>E23</f>
+        <v>1</v>
+      </c>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AQ$5,VLOOKUP(AL23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AQ$5,VLOOKUP(AL23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AR$5,VLOOKUP(AM23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AR$5,VLOOKUP(AM23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AS$5,VLOOKUP(AN23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AS$5,VLOOKUP(AN23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AT$5,VLOOKUP(AO23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AT$5,VLOOKUP(AO23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AU$5,VLOOKUP(AP23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AU$5,VLOOKUP(AP23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AV$5,VLOOKUP(AL23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AV$5,VLOOKUP(AL23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AW$5,VLOOKUP(AM23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AW$5,VLOOKUP(AM23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AX$5,VLOOKUP(AN23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AX$5,VLOOKUP(AN23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AY$5,VLOOKUP(AO23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AY$5,VLOOKUP(AO23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ23" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK23=AZ$5,VLOOKUP(AP23,buff!$K:$L,2,FALSE),"")=0,"",IF($AK23=AZ$5,VLOOKUP(AP23,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA23" s="6"/>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H24" s="4"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="A24" t="str">
+        <f t="shared" si="37"/>
+        <v>毒躯蘑菇主动技能2等级1</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" ref="B24" si="44">20000000+G24*1000+F24</f>
+        <v>20011002</v>
+      </c>
+      <c r="C24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能2</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
+        <f>VLOOKUP(C24,角色!A:B,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16" t="str">
+        <f>VLOOKUP(G24,角色!Q:T,主动技能!F24+1,FALSE)</f>
+        <v>eff_sixingguangquan||eff_zuzhou|</v>
+      </c>
+      <c r="Q24" s="16">
+        <f t="shared" ref="Q24" si="45">IF(L24="单体",1,IF(L24="全体",3,2))</f>
+        <v>3</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v>300042:100:2:0</v>
+      </c>
+      <c r="U24" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Y24">
+        <v>50</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
       <c r="AA24" s="16"/>
       <c r="AB24" s="16"/>
+      <c r="AE24" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ24" s="19">
+        <f t="shared" ref="AJ24" si="46">E24</f>
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AQ24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AQ$5,VLOOKUP(AL24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AQ$5,VLOOKUP(AL24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v>300042:100:2:0</v>
+      </c>
+      <c r="AR24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AR$5,VLOOKUP(AM24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AR$5,VLOOKUP(AM24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AS$5,VLOOKUP(AN24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AS$5,VLOOKUP(AN24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AT$5,VLOOKUP(AO24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AT$5,VLOOKUP(AO24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AU$5,VLOOKUP(AP24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AU$5,VLOOKUP(AP24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AV$5,VLOOKUP(AL24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AV$5,VLOOKUP(AL24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AW$5,VLOOKUP(AM24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AW$5,VLOOKUP(AM24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AX$5,VLOOKUP(AN24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AX$5,VLOOKUP(AN24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AY$5,VLOOKUP(AO24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AY$5,VLOOKUP(AO24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ24" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK24=AZ$5,VLOOKUP(AP24,buff!$K:$L,2,FALSE),"")=0,"",IF($AK24=AZ$5,VLOOKUP(AP24,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA24" s="6"/>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H25" s="4"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="A25" t="str">
+        <f t="shared" si="37"/>
+        <v>毒躯甲虫精主动技能1等级1</v>
+      </c>
+      <c r="B25" s="8">
+        <f>20000000+G25*1000+F25</f>
+        <v>20012001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <f>VLOOKUP(C25,角色!A:B,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I25" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
+        <v>100</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" s="16" t="str">
+        <f>VLOOKUP(G25,角色!Q:T,主动技能!F25+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>IF(L25="单体",1,IF(L25="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U25" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>100</v>
+      </c>
       <c r="AA25" s="16"/>
       <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ25" s="19">
+        <f>E25</f>
+        <v>1</v>
+      </c>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AQ$5,VLOOKUP(AL25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AQ$5,VLOOKUP(AL25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AR$5,VLOOKUP(AM25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AR$5,VLOOKUP(AM25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AS$5,VLOOKUP(AN25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AS$5,VLOOKUP(AN25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AT$5,VLOOKUP(AO25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AT$5,VLOOKUP(AO25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AU$5,VLOOKUP(AP25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AU$5,VLOOKUP(AP25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AV$5,VLOOKUP(AL25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AV$5,VLOOKUP(AL25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AW$5,VLOOKUP(AM25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AW$5,VLOOKUP(AM25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AX$5,VLOOKUP(AN25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AX$5,VLOOKUP(AN25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AY$5,VLOOKUP(AO25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AY$5,VLOOKUP(AO25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ25" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK25=AZ$5,VLOOKUP(AP25,buff!$K:$L,2,FALSE),"")=0,"",IF($AK25=AZ$5,VLOOKUP(AP25,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA25" s="6"/>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H26" s="4"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
+      <c r="A26" t="str">
+        <f t="shared" si="37"/>
+        <v>毒躯树妖主动技能1等级1</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26" si="47">20000000+G26*1000+F26</f>
+        <v>20013001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <f>VLOOKUP(C26,角色!A:B,2,FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" s="17" t="str">
+        <f t="shared" ref="I26" si="48">"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4">
+        <v>100</v>
+      </c>
       <c r="O26" s="4"/>
+      <c r="P26" s="16" t="str">
+        <f>VLOOKUP(G26,角色!Q:T,主动技能!F26+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q26" s="16">
+        <f t="shared" ref="Q26" si="49">IF(L26="单体",1,IF(L26="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>100</v>
+      </c>
       <c r="AA26" s="16"/>
       <c r="AB26" s="16"/>
+      <c r="AE26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ26" s="19">
+        <f t="shared" ref="AJ26" si="50">E26</f>
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AQ$5,VLOOKUP(AL26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AQ$5,VLOOKUP(AL26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AR$5,VLOOKUP(AM26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AR$5,VLOOKUP(AM26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AS$5,VLOOKUP(AN26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AS$5,VLOOKUP(AN26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AT$5,VLOOKUP(AO26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AT$5,VLOOKUP(AO26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AU$5,VLOOKUP(AP26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AU$5,VLOOKUP(AP26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AV$5,VLOOKUP(AL26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AV$5,VLOOKUP(AL26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AW$5,VLOOKUP(AM26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AW$5,VLOOKUP(AM26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AX$5,VLOOKUP(AN26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AX$5,VLOOKUP(AN26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AY$5,VLOOKUP(AO26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AY$5,VLOOKUP(AO26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ26" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK26=AZ$5,VLOOKUP(AP26,buff!$K:$L,2,FALSE),"")=0,"",IF($AK26=AZ$5,VLOOKUP(AP26,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA26" s="6"/>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H27" s="4"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="A27" t="str">
+        <f t="shared" si="37"/>
+        <v>毒躯藤蔓怪主动技能1等级1</v>
+      </c>
+      <c r="B27" s="8">
+        <f>20000000+G27*1000+F27</f>
+        <v>20014001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f t="shared" si="38"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <f>VLOOKUP(C27,角色!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I27" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17">
+        <v>100</v>
+      </c>
+      <c r="O27" s="17"/>
+      <c r="P27" s="16" t="str">
+        <f>VLOOKUP(G27,角色!Q:T,主动技能!F27+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>IF(L27="单体",1,IF(L27="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="U27" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>100</v>
+      </c>
       <c r="AA27" s="16"/>
       <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ27" s="19">
+        <f>E27</f>
+        <v>1</v>
+      </c>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="16"/>
+      <c r="AO27" s="16"/>
+      <c r="AP27" s="16"/>
+      <c r="AQ27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AQ$5,VLOOKUP(AL27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AQ$5,VLOOKUP(AL27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AR$5,VLOOKUP(AM27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AR$5,VLOOKUP(AM27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AS$5,VLOOKUP(AN27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AS$5,VLOOKUP(AN27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AT$5,VLOOKUP(AO27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AT$5,VLOOKUP(AO27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AU$5,VLOOKUP(AP27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AU$5,VLOOKUP(AP27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AV$5,VLOOKUP(AL27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AV$5,VLOOKUP(AL27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AW$5,VLOOKUP(AM27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AW$5,VLOOKUP(AM27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AX$5,VLOOKUP(AN27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AX$5,VLOOKUP(AN27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AY$5,VLOOKUP(AO27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AY$5,VLOOKUP(AO27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ27" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK27=AZ$5,VLOOKUP(AP27,buff!$K:$L,2,FALSE),"")=0,"",IF($AK27=AZ$5,VLOOKUP(AP27,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA27" s="6"/>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H28" s="4"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
+      <c r="A28" t="str">
+        <f t="shared" ref="A28:A32" si="51">C28&amp;D28&amp;$E$6&amp;E28</f>
+        <v>毒躯藤蔓怪主动技能2等级1</v>
+      </c>
+      <c r="B28" s="8">
+        <f>20000000+G28*1000+F28</f>
+        <v>20014002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>467</v>
+      </c>
+      <c r="D28" s="8" t="str">
+        <f t="shared" ref="D28:D32" si="52">$D$4&amp;F28</f>
+        <v>主动技能2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2</v>
+      </c>
+      <c r="G28" s="8">
+        <f>VLOOKUP(C28,角色!A:B,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17">
+        <v>100</v>
+      </c>
+      <c r="O28" s="17"/>
+      <c r="P28" s="16" t="str">
+        <f>VLOOKUP(G28,角色!Q:T,主动技能!F28+1,FALSE)</f>
+        <v>eff_sixingguangquan||eff_shufu|</v>
+      </c>
+      <c r="Q28" s="16">
+        <f>IF(L28="单体",1,IF(L28="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="16" t="str">
+        <f t="shared" ref="T28:T32" si="53">IF(AQ28="","",AQ28)&amp;IF(AR28="","","|"&amp;AR28)&amp;IF(AS28="","","|"&amp;AS28)&amp;IF(AT28="","","|"&amp;AT28)&amp;IF(AU28="","","|"&amp;AU28)</f>
+        <v>300002:100:2:0</v>
+      </c>
+      <c r="U28" s="16" t="str">
+        <f t="shared" ref="U28:U32" si="54">IF(AV28="","",AV28)&amp;IF(AW28="","","|"&amp;AW28)&amp;IF(AX28="","","|"&amp;AX28)&amp;IF(AY28="","","|"&amp;AY28)&amp;IF(AZ28="","","|"&amp;AZ28)</f>
+        <v/>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16">
+        <v>60</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>100</v>
+      </c>
       <c r="AA28" s="16"/>
       <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ28" s="19">
+        <f>E28</f>
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL28" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16"/>
+      <c r="AO28" s="16"/>
+      <c r="AP28" s="16"/>
+      <c r="AQ28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AQ$5,VLOOKUP(AL28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AQ$5,VLOOKUP(AL28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v>300002:100:2:0</v>
+      </c>
+      <c r="AR28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AR$5,VLOOKUP(AM28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AR$5,VLOOKUP(AM28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AS$5,VLOOKUP(AN28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AS$5,VLOOKUP(AN28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AT$5,VLOOKUP(AO28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AT$5,VLOOKUP(AO28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AU$5,VLOOKUP(AP28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AU$5,VLOOKUP(AP28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AV$5,VLOOKUP(AL28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AV$5,VLOOKUP(AL28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AW$5,VLOOKUP(AM28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AW$5,VLOOKUP(AM28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AX$5,VLOOKUP(AN28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AX$5,VLOOKUP(AN28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AY$5,VLOOKUP(AO28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AY$5,VLOOKUP(AO28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ28" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK28=AZ$5,VLOOKUP(AP28,buff!$K:$L,2,FALSE),"")=0,"",IF($AK28=AZ$5,VLOOKUP(AP28,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA28" s="6"/>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H29" s="4"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="A29" t="str">
+        <f t="shared" si="51"/>
+        <v>反击黄蜂怪主动技能1等级1</v>
+      </c>
+      <c r="B29" s="8">
+        <f>20000000+G29*1000+F29</f>
+        <v>20015001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <f>VLOOKUP(C29,角色!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I29" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17">
+        <v>100</v>
+      </c>
+      <c r="O29" s="17"/>
+      <c r="P29" s="16" t="str">
+        <f>VLOOKUP(G29,角色!Q:T,主动技能!F29+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q29" s="16">
+        <f>IF(L29="单体",1,IF(L29="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U29" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>100</v>
+      </c>
       <c r="AA29" s="16"/>
       <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ29" s="19">
+        <f>E29</f>
+        <v>1</v>
+      </c>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="16"/>
+      <c r="AO29" s="16"/>
+      <c r="AP29" s="16"/>
+      <c r="AQ29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AQ$5,VLOOKUP(AL29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AQ$5,VLOOKUP(AL29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AR$5,VLOOKUP(AM29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AR$5,VLOOKUP(AM29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AS$5,VLOOKUP(AN29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AS$5,VLOOKUP(AN29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AT$5,VLOOKUP(AO29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AT$5,VLOOKUP(AO29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AU$5,VLOOKUP(AP29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AU$5,VLOOKUP(AP29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AV$5,VLOOKUP(AL29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AV$5,VLOOKUP(AL29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AW$5,VLOOKUP(AM29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AW$5,VLOOKUP(AM29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AX$5,VLOOKUP(AN29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AX$5,VLOOKUP(AN29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AY$5,VLOOKUP(AO29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AY$5,VLOOKUP(AO29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ29" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK29=AZ$5,VLOOKUP(AP29,buff!$K:$L,2,FALSE),"")=0,"",IF($AK29=AZ$5,VLOOKUP(AP29,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA29" s="6"/>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H30" s="4"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="4"/>
+      <c r="A30" t="str">
+        <f t="shared" si="51"/>
+        <v>反击黄蜂怪主动技能2等级1</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" ref="B30" si="55">20000000+G30*1000+F30</f>
+        <v>20015002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>465</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>主动技能2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2</v>
+      </c>
+      <c r="G30" s="8">
+        <f>VLOOKUP(C30,角色!A:B,2,FALSE)</f>
+        <v>15</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="4">
+        <v>100</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="16" t="str">
+        <f>VLOOKUP(G30,角色!Q:T,主动技能!F30+1,FALSE)</f>
+        <v>eff_sixingguangquan||eff_kuanglongci|</v>
+      </c>
+      <c r="Q30" s="16">
+        <f t="shared" ref="Q30" si="56">IF(L30="单体",1,IF(L30="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U30" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="Y30">
+        <v>50</v>
+      </c>
+      <c r="Z30">
+        <v>150</v>
+      </c>
       <c r="AA30" s="16"/>
       <c r="AB30" s="16"/>
+      <c r="AE30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="AJ30" s="19">
+        <f t="shared" ref="AJ30" si="57">E30</f>
+        <v>1</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="4"/>
+      <c r="AQ30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AQ$5,VLOOKUP(AL30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AQ$5,VLOOKUP(AL30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AR$5,VLOOKUP(AM30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AR$5,VLOOKUP(AM30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AS$5,VLOOKUP(AN30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AS$5,VLOOKUP(AN30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AT$5,VLOOKUP(AO30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AT$5,VLOOKUP(AO30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AU$5,VLOOKUP(AP30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AU$5,VLOOKUP(AP30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AV$5,VLOOKUP(AL30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AV$5,VLOOKUP(AL30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AW$5,VLOOKUP(AM30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AW$5,VLOOKUP(AM30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AX$5,VLOOKUP(AN30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AX$5,VLOOKUP(AN30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AY$5,VLOOKUP(AO30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AY$5,VLOOKUP(AO30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ30" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK30=AZ$5,VLOOKUP(AP30,buff!$K:$L,2,FALSE),"")=0,"",IF($AK30=AZ$5,VLOOKUP(AP30,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA30" s="6"/>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H31" s="4"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="A31" t="str">
+        <f t="shared" si="51"/>
+        <v>反击甲虫精主动技能1等级1</v>
+      </c>
+      <c r="B31" s="8">
+        <f>20000000+G31*1000+F31</f>
+        <v>20016001</v>
+      </c>
+      <c r="C31" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <f>VLOOKUP(C31,角色!A:B,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="I31" s="17" t="str">
+        <f>"对敌方单体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17">
+        <v>100</v>
+      </c>
+      <c r="O31" s="17"/>
+      <c r="P31" s="16" t="str">
+        <f>VLOOKUP(G31,角色!Q:T,主动技能!F31+1,FALSE)</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="Q31" s="16">
+        <f>IF(L31="单体",1,IF(L31="全体",3,2))</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="16" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U31" s="16" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>100</v>
+      </c>
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ31" s="19">
+        <f>E31</f>
+        <v>1</v>
+      </c>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="16"/>
+      <c r="AO31" s="16"/>
+      <c r="AP31" s="16"/>
+      <c r="AQ31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AQ$5,VLOOKUP(AL31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AQ$5,VLOOKUP(AL31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AR$5,VLOOKUP(AM31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AR$5,VLOOKUP(AM31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AS$5,VLOOKUP(AN31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AS$5,VLOOKUP(AN31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AT$5,VLOOKUP(AO31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AT$5,VLOOKUP(AO31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AU$5,VLOOKUP(AP31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AU$5,VLOOKUP(AP31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AV$5,VLOOKUP(AL31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AV$5,VLOOKUP(AL31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AW$5,VLOOKUP(AM31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AW$5,VLOOKUP(AM31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AX$5,VLOOKUP(AN31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AX$5,VLOOKUP(AN31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AY$5,VLOOKUP(AO31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AY$5,VLOOKUP(AO31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ31" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK31=AZ$5,VLOOKUP(AP31,buff!$K:$L,2,FALSE),"")=0,"",IF($AK31=AZ$5,VLOOKUP(AP31,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA31" s="6"/>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.15">
-      <c r="H32" s="4"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="4"/>
+      <c r="A32" t="str">
+        <f t="shared" si="51"/>
+        <v>世界boss莉莉丝主动技能1等级1</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" ref="B32" si="58">20000000+G32*1000+F32</f>
+        <v>20017001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D32" s="8" t="str">
+        <f t="shared" si="52"/>
+        <v>主动技能1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <f>VLOOKUP(C32,角色!A:B,2,FALSE)</f>
+        <v>17</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I32" s="17" t="str">
+        <f>"对敌方全体攻击，造成100%攻击力伤害。"</f>
+        <v>对敌方全体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>320</v>
+      </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
+      <c r="N32" s="4">
+        <v>100</v>
+      </c>
+      <c r="O32" s="4">
+        <v>100</v>
+      </c>
+      <c r="P32" s="16" t="str">
+        <f>VLOOKUP(G32,角色!Q:T,主动技能!F32+1,FALSE)</f>
+        <v>eff_sixingguangquan||eff_xuepiaoqianli|</v>
+      </c>
+      <c r="Q32" s="16">
+        <f t="shared" ref="Q32" si="59">IF(L32="单体",1,IF(L32="全体",3,2))</f>
+        <v>3</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="U32" s="6" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>100</v>
+      </c>
       <c r="AA32" s="16"/>
       <c r="AB32" s="16"/>
+      <c r="AE32" s="27">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="AJ32" s="19">
+        <f t="shared" ref="AJ32" si="60">E32</f>
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AQ$5,VLOOKUP(AL32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AQ$5,VLOOKUP(AL32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AR$5,VLOOKUP(AM32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AR$5,VLOOKUP(AM32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AS$5,VLOOKUP(AN32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AS$5,VLOOKUP(AN32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AT$5,VLOOKUP(AO32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AT$5,VLOOKUP(AO32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AU$5,VLOOKUP(AP32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AU$5,VLOOKUP(AP32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AV$5,VLOOKUP(AL32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AV$5,VLOOKUP(AL32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AW$5,VLOOKUP(AM32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AW$5,VLOOKUP(AM32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AX$5,VLOOKUP(AN32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AX$5,VLOOKUP(AN32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AY$5,VLOOKUP(AO32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AY$5,VLOOKUP(AO32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ32" s="6" t="str">
+        <f>_xlfn.IFNA(IF(IF($AK32=AZ$5,VLOOKUP(AP32,buff!$K:$L,2,FALSE),"")=0,"",IF($AK32=AZ$5,VLOOKUP(AP32,buff!$K:$L,2,FALSE),"")),"")</f>
+        <v/>
+      </c>
       <c r="BA32" s="6"/>
     </row>
     <row r="33" spans="8:53" x14ac:dyDescent="0.15">
@@ -8631,9 +11694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Y14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8860,11 +11923,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" ref="C7" si="2">IF(C6=C$4,1,C6+1)</f>
+        <f t="shared" ref="C7:C10" si="2">IF(C6=C$4,1,C6+1)</f>
         <v>1</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" ref="E7" si="3">G7</f>
+        <f t="shared" ref="E7:E9" si="3">G7</f>
         <v>200002</v>
       </c>
       <c r="F7" t="str">
@@ -8916,19 +11979,199 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="H8" s="17"/>
-      <c r="I8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="8" t="str">
+        <f t="shared" ref="A8" si="5">A$4&amp;B8&amp;A$5&amp;C8</f>
+        <v>被动技能3等级1</v>
+      </c>
+      <c r="B8" s="8">
+        <f>IF(C8=1,B7+1,B7)</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8" si="6">G8</f>
+        <v>200003</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8" si="7">H8</f>
+        <v>毒躯</v>
+      </c>
+      <c r="G8">
+        <v>200003</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J8" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f t="shared" ref="K8" si="8">IF(R8="","",R8)&amp;IF(S8="","","|"&amp;S8)&amp;IF(T8="","","|"&amp;T8)&amp;IF(U8="","","|"&amp;U8)&amp;IF(V8="","","|"&amp;V8)</f>
+        <v>300043:100:2:0</v>
+      </c>
+      <c r="L8" s="10">
+        <f>C8</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(M8,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(M8,buff!$K:$L,2,FALSE),""))</f>
+        <v>300043:100:2:0</v>
+      </c>
+      <c r="S8" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(N8,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(N8,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="T8" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(O8,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(O8,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="U8" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(P8,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(P8,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="V8" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(Q8,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(Q8,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="H9" s="17"/>
-      <c r="I9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="8" t="str">
+        <f t="shared" ref="A9" si="9">A$4&amp;B9&amp;A$5&amp;C9</f>
+        <v>被动技能4等级1</v>
+      </c>
+      <c r="B9" s="8">
+        <f>IF(C9=1,B8+1,B8)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="3"/>
+        <v>200004</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ref="F9" si="10">H9</f>
+        <v>每回合加攻200</v>
+      </c>
+      <c r="G9">
+        <v>200004</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f t="shared" ref="K9" si="11">IF(R9="","",R9)&amp;IF(S9="","","|"&amp;S9)&amp;IF(T9="","","|"&amp;T9)&amp;IF(U9="","","|"&amp;U9)&amp;IF(V9="","","|"&amp;V9)</f>
+        <v>300055:100:1:0</v>
+      </c>
+      <c r="L9" s="10">
+        <f>C9</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(M9,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(M9,buff!$K:$L,2,FALSE),""))</f>
+        <v>300055:100:1:0</v>
+      </c>
+      <c r="S9" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(N9,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(N9,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="T9" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(O9,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(O9,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="U9" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(P9,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(P9,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="V9" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(Q9,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(Q9,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="H10" s="17"/>
-      <c r="I10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="8" t="str">
+        <f t="shared" ref="A10" si="12">A$4&amp;B10&amp;A$5&amp;C10</f>
+        <v>被动技能5等级1</v>
+      </c>
+      <c r="B10" s="8">
+        <f>IF(C10=1,B9+1,B9)</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10" si="13">G10</f>
+        <v>200005</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" ref="F10" si="14">H10</f>
+        <v>永久免疫负面状态</v>
+      </c>
+      <c r="G10">
+        <v>200005</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f t="shared" ref="K10" si="15">IF(R10="","",R10)&amp;IF(S10="","","|"&amp;S10)&amp;IF(T10="","","|"&amp;T10)&amp;IF(U10="","","|"&amp;U10)&amp;IF(V10="","","|"&amp;V10)</f>
+        <v>300059:100:1:0</v>
+      </c>
+      <c r="L10" s="10">
+        <f>C10</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(M10,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(M10,buff!$K:$L,2,FALSE),""))</f>
+        <v>300059:100:1:0</v>
+      </c>
+      <c r="S10" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(N10,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(N10,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="T10" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(O10,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(O10,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="U10" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(P10,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(P10,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="V10" s="6" t="str">
+        <f>IF(_xlfn.IFNA(VLOOKUP(Q10,buff!$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(Q10,buff!$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="H11" s="17"/>
@@ -8963,7 +12206,7 @@
   <dimension ref="B2:AE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -9542,11 +12785,11 @@
   <dimension ref="J2:BM556"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="L27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -14006,99 +17249,1697 @@
       </c>
     </row>
     <row r="47" spans="11:65" x14ac:dyDescent="0.15">
-      <c r="N47" s="1"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
+      <c r="K47" t="str">
+        <f t="shared" ref="K47" si="60">R47</f>
+        <v>毒躯</v>
+      </c>
+      <c r="L47" s="6" t="str">
+        <f>Q47&amp;":"&amp;M47&amp;":"&amp;VLOOKUP(N47,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O47="",0,O47)</f>
+        <v>300043:100:2:0</v>
+      </c>
+      <c r="M47">
+        <v>100</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>300043</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="S47" s="4" t="str">
+        <f t="shared" ref="S47" si="61">R47</f>
+        <v>毒躯</v>
+      </c>
+      <c r="T47" t="s">
+        <v>279</v>
+      </c>
+      <c r="V47">
+        <v>-10</v>
+      </c>
+      <c r="AI47" s="12" t="str">
+        <f t="shared" ref="AI47" si="62">IF(BF47="","",BF47)&amp;IF(BG47="","","|"&amp;BG47)&amp;IF(BH47="","","|"&amp;BH47)&amp;IF(BI47="","","|"&amp;BI47)&amp;IF(BJ47="","","|"&amp;BJ47)</f>
+        <v/>
+      </c>
+      <c r="AR47">
+        <v>2</v>
+      </c>
+      <c r="AS47">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="4"/>
+      <c r="AV47" s="4"/>
+      <c r="AW47" s="4"/>
+      <c r="AX47" s="4"/>
+      <c r="AZ47" s="12" t="str">
+        <f t="shared" ref="AZ47" si="63">IF(BA47="","",BA47)&amp;IF(BB47="","","|"&amp;BB47)&amp;IF(BC47="","","|"&amp;BC47)&amp;IF(BD47="","","|"&amp;BD47)&amp;IF(BE47="","","|"&amp;BE47)</f>
+        <v/>
+      </c>
+      <c r="BA47" s="12" t="str">
+        <f t="shared" ref="BA47" si="64">IF(_xlfn.IFNA(VLOOKUP(AU47,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU47,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB47" s="12" t="str">
+        <f t="shared" ref="BB47" si="65">IF(_xlfn.IFNA(VLOOKUP(AV47,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV47,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC47" s="12" t="str">
+        <f t="shared" ref="BC47" si="66">IF(_xlfn.IFNA(VLOOKUP(AW47,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW47,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD47" s="12" t="str">
+        <f t="shared" ref="BD47" si="67">IF(_xlfn.IFNA(VLOOKUP(AX47,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX47,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE47" s="12" t="str">
+        <f t="shared" ref="BE47" si="68">IF(_xlfn.IFNA(VLOOKUP(AY47,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY47,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF47" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y47,对应表!$Z:$AA,2,FALSE)&amp;Z47,"")</f>
+        <v/>
+      </c>
+      <c r="BG47" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA47,对应表!$Z:$AA,2,FALSE)&amp;AB47,"")</f>
+        <v/>
+      </c>
+      <c r="BH47" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC47,对应表!$Z:$AA,2,FALSE)&amp;AD47,"")</f>
+        <v/>
+      </c>
+      <c r="BI47" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE47,对应表!$Z:$AA,2,FALSE)&amp;AF47,"")</f>
+        <v/>
+      </c>
+      <c r="BJ47" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG47,对应表!$Z:$AA,2,FALSE)&amp;AH47,"")</f>
+        <v/>
+      </c>
+      <c r="BM47" t="str">
+        <f t="shared" ref="BM47" si="69">IF(AB47="","",AB47)</f>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="11:65" x14ac:dyDescent="0.15">
-      <c r="N48" s="1"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-    </row>
-    <row r="49" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N49" s="1"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
+      <c r="K48" t="str">
+        <f t="shared" ref="K48" si="70">R48</f>
+        <v>回合结束加攻10</v>
+      </c>
+      <c r="L48" s="6" t="str">
+        <f>Q48&amp;":"&amp;M48&amp;":"&amp;VLOOKUP(N48,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O48="",0,O48)</f>
+        <v>300044:100:1:0</v>
+      </c>
+      <c r="M48">
+        <v>100</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>300044</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="S48" s="4" t="str">
+        <f t="shared" ref="S48" si="71">R48</f>
+        <v>回合结束加攻10</v>
+      </c>
+      <c r="T48" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z48">
+        <v>10</v>
+      </c>
+      <c r="AI48" s="12" t="str">
+        <f t="shared" ref="AI48" si="72">IF(BF48="","",BF48)&amp;IF(BG48="","","|"&amp;BG48)&amp;IF(BH48="","","|"&amp;BH48)&amp;IF(BI48="","","|"&amp;BI48)&amp;IF(BJ48="","","|"&amp;BJ48)</f>
+        <v>ATK_P:10</v>
+      </c>
+      <c r="AR48">
+        <v>9999</v>
+      </c>
+      <c r="AS48">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="4"/>
+      <c r="AV48" s="4"/>
+      <c r="AW48" s="4"/>
+      <c r="AX48" s="4"/>
+      <c r="AZ48" s="12" t="str">
+        <f t="shared" ref="AZ48" si="73">IF(BA48="","",BA48)&amp;IF(BB48="","","|"&amp;BB48)&amp;IF(BC48="","","|"&amp;BC48)&amp;IF(BD48="","","|"&amp;BD48)&amp;IF(BE48="","","|"&amp;BE48)</f>
+        <v/>
+      </c>
+      <c r="BA48" s="12" t="str">
+        <f t="shared" ref="BA48" si="74">IF(_xlfn.IFNA(VLOOKUP(AU48,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU48,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB48" s="12" t="str">
+        <f t="shared" ref="BB48" si="75">IF(_xlfn.IFNA(VLOOKUP(AV48,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV48,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC48" s="12" t="str">
+        <f t="shared" ref="BC48" si="76">IF(_xlfn.IFNA(VLOOKUP(AW48,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW48,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD48" s="12" t="str">
+        <f t="shared" ref="BD48" si="77">IF(_xlfn.IFNA(VLOOKUP(AX48,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX48,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE48" s="12" t="str">
+        <f t="shared" ref="BE48" si="78">IF(_xlfn.IFNA(VLOOKUP(AY48,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY48,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF48" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y48,对应表!$Z:$AA,2,FALSE)&amp;Z48,"")</f>
+        <v>ATK_P:10</v>
+      </c>
+      <c r="BG48" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA48,对应表!$Z:$AA,2,FALSE)&amp;AB48,"")</f>
+        <v/>
+      </c>
+      <c r="BH48" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC48,对应表!$Z:$AA,2,FALSE)&amp;AD48,"")</f>
+        <v/>
+      </c>
+      <c r="BI48" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE48,对应表!$Z:$AA,2,FALSE)&amp;AF48,"")</f>
+        <v/>
+      </c>
+      <c r="BJ48" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG48,对应表!$Z:$AA,2,FALSE)&amp;AH48,"")</f>
+        <v/>
+      </c>
+      <c r="BM48" t="str">
+        <f t="shared" ref="BM48" si="79">IF(AB48="","",AB48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K49" t="str">
+        <f t="shared" ref="K49:K50" si="80">R49</f>
+        <v>回合结束加攻20</v>
+      </c>
+      <c r="L49" s="6" t="str">
+        <f>Q49&amp;":"&amp;M49&amp;":"&amp;VLOOKUP(N49,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O49="",0,O49)</f>
+        <v>300045:100:1:0</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>300045</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="S49" s="4" t="str">
+        <f t="shared" ref="S49:S50" si="81">R49</f>
+        <v>回合结束加攻20</v>
+      </c>
+      <c r="T49" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z49">
+        <v>20</v>
+      </c>
+      <c r="AI49" s="12" t="str">
+        <f t="shared" ref="AI49:AI50" si="82">IF(BF49="","",BF49)&amp;IF(BG49="","","|"&amp;BG49)&amp;IF(BH49="","","|"&amp;BH49)&amp;IF(BI49="","","|"&amp;BI49)&amp;IF(BJ49="","","|"&amp;BJ49)</f>
+        <v>ATK_P:20</v>
+      </c>
+      <c r="AR49">
+        <v>9999</v>
+      </c>
+      <c r="AS49">
+        <v>1</v>
+      </c>
       <c r="AU49" s="4"/>
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
-    </row>
-    <row r="50" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N50" s="1"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
+      <c r="AZ49" s="12" t="str">
+        <f t="shared" ref="AZ49:AZ50" si="83">IF(BA49="","",BA49)&amp;IF(BB49="","","|"&amp;BB49)&amp;IF(BC49="","","|"&amp;BC49)&amp;IF(BD49="","","|"&amp;BD49)&amp;IF(BE49="","","|"&amp;BE49)</f>
+        <v/>
+      </c>
+      <c r="BA49" s="12" t="str">
+        <f t="shared" ref="BA49:BA50" si="84">IF(_xlfn.IFNA(VLOOKUP(AU49,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU49,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB49" s="12" t="str">
+        <f t="shared" ref="BB49:BB50" si="85">IF(_xlfn.IFNA(VLOOKUP(AV49,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV49,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC49" s="12" t="str">
+        <f t="shared" ref="BC49:BC50" si="86">IF(_xlfn.IFNA(VLOOKUP(AW49,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW49,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD49" s="12" t="str">
+        <f t="shared" ref="BD49:BD50" si="87">IF(_xlfn.IFNA(VLOOKUP(AX49,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX49,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE49" s="12" t="str">
+        <f t="shared" ref="BE49:BE50" si="88">IF(_xlfn.IFNA(VLOOKUP(AY49,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY49,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF49" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y49,对应表!$Z:$AA,2,FALSE)&amp;Z49,"")</f>
+        <v>ATK_P:20</v>
+      </c>
+      <c r="BG49" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA49,对应表!$Z:$AA,2,FALSE)&amp;AB49,"")</f>
+        <v/>
+      </c>
+      <c r="BH49" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC49,对应表!$Z:$AA,2,FALSE)&amp;AD49,"")</f>
+        <v/>
+      </c>
+      <c r="BI49" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE49,对应表!$Z:$AA,2,FALSE)&amp;AF49,"")</f>
+        <v/>
+      </c>
+      <c r="BJ49" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG49,对应表!$Z:$AA,2,FALSE)&amp;AH49,"")</f>
+        <v/>
+      </c>
+      <c r="BM49" t="str">
+        <f t="shared" ref="BM49:BM50" si="89">IF(AB49="","",AB49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K50" t="str">
+        <f t="shared" si="80"/>
+        <v>回合结束加攻30</v>
+      </c>
+      <c r="L50" s="6" t="str">
+        <f>Q50&amp;":"&amp;M50&amp;":"&amp;VLOOKUP(N50,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O50="",0,O50)</f>
+        <v>300046:100:1:0</v>
+      </c>
+      <c r="M50">
+        <v>100</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>300046</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="S50" s="4" t="str">
+        <f t="shared" si="81"/>
+        <v>回合结束加攻30</v>
+      </c>
+      <c r="T50" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z50">
+        <v>30</v>
+      </c>
+      <c r="AI50" s="12" t="str">
+        <f t="shared" si="82"/>
+        <v>ATK_P:30</v>
+      </c>
+      <c r="AR50">
+        <v>9999</v>
+      </c>
+      <c r="AS50">
+        <v>1</v>
+      </c>
       <c r="AU50" s="4"/>
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
-    </row>
-    <row r="51" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N51" s="1"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-    </row>
-    <row r="52" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N52" s="1"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-    </row>
-    <row r="53" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N53" s="1"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-    </row>
-    <row r="54" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N54" s="1"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="4"/>
-    </row>
-    <row r="55" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N55" s="1"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="4"/>
-    </row>
-    <row r="56" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N56" s="1"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-    </row>
-    <row r="57" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N57" s="1"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="4"/>
-    </row>
-    <row r="58" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N58" s="1"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-    </row>
-    <row r="59" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N59" s="1"/>
-      <c r="R59" s="4"/>
-      <c r="S59" s="4"/>
-    </row>
-    <row r="60" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N60" s="1"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-    </row>
-    <row r="61" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N61" s="1"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-    </row>
-    <row r="62" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N62" s="1"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="14:50" x14ac:dyDescent="0.15">
-      <c r="N63" s="1"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="14:50" x14ac:dyDescent="0.15">
+      <c r="AZ50" s="12" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+      <c r="BA50" s="12" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
+      <c r="BB50" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v/>
+      </c>
+      <c r="BC50" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
+      <c r="BD50" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
+      <c r="BE50" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v/>
+      </c>
+      <c r="BF50" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y50,对应表!$Z:$AA,2,FALSE)&amp;Z50,"")</f>
+        <v>ATK_P:30</v>
+      </c>
+      <c r="BG50" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA50,对应表!$Z:$AA,2,FALSE)&amp;AB50,"")</f>
+        <v/>
+      </c>
+      <c r="BH50" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC50,对应表!$Z:$AA,2,FALSE)&amp;AD50,"")</f>
+        <v/>
+      </c>
+      <c r="BI50" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE50,对应表!$Z:$AA,2,FALSE)&amp;AF50,"")</f>
+        <v/>
+      </c>
+      <c r="BJ50" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG50,对应表!$Z:$AA,2,FALSE)&amp;AH50,"")</f>
+        <v/>
+      </c>
+      <c r="BM50" t="str">
+        <f t="shared" si="89"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K51" t="str">
+        <f t="shared" ref="K51:K56" si="90">R51</f>
+        <v>回合结束加攻40</v>
+      </c>
+      <c r="L51" s="6" t="str">
+        <f>Q51&amp;":"&amp;M51&amp;":"&amp;VLOOKUP(N51,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O51="",0,O51)</f>
+        <v>300047:100:1:0</v>
+      </c>
+      <c r="M51">
+        <v>100</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>300047</v>
+      </c>
+      <c r="R51" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="S51" s="4" t="str">
+        <f t="shared" ref="S51:S56" si="91">R51</f>
+        <v>回合结束加攻40</v>
+      </c>
+      <c r="T51" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z51">
+        <v>40</v>
+      </c>
+      <c r="AI51" s="12" t="str">
+        <f t="shared" ref="AI51:AI56" si="92">IF(BF51="","",BF51)&amp;IF(BG51="","","|"&amp;BG51)&amp;IF(BH51="","","|"&amp;BH51)&amp;IF(BI51="","","|"&amp;BI51)&amp;IF(BJ51="","","|"&amp;BJ51)</f>
+        <v>ATK_P:40</v>
+      </c>
+      <c r="AR51">
+        <v>9999</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AZ51" s="12" t="str">
+        <f t="shared" ref="AZ51:AZ56" si="93">IF(BA51="","",BA51)&amp;IF(BB51="","","|"&amp;BB51)&amp;IF(BC51="","","|"&amp;BC51)&amp;IF(BD51="","","|"&amp;BD51)&amp;IF(BE51="","","|"&amp;BE51)</f>
+        <v/>
+      </c>
+      <c r="BA51" s="12" t="str">
+        <f t="shared" ref="BA51:BA56" si="94">IF(_xlfn.IFNA(VLOOKUP(AU51,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU51,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB51" s="12" t="str">
+        <f t="shared" ref="BB51:BB56" si="95">IF(_xlfn.IFNA(VLOOKUP(AV51,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV51,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC51" s="12" t="str">
+        <f t="shared" ref="BC51:BC56" si="96">IF(_xlfn.IFNA(VLOOKUP(AW51,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW51,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD51" s="12" t="str">
+        <f t="shared" ref="BD51:BD56" si="97">IF(_xlfn.IFNA(VLOOKUP(AX51,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX51,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE51" s="12" t="str">
+        <f t="shared" ref="BE51:BE56" si="98">IF(_xlfn.IFNA(VLOOKUP(AY51,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY51,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF51" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y51,对应表!$Z:$AA,2,FALSE)&amp;Z51,"")</f>
+        <v>ATK_P:40</v>
+      </c>
+      <c r="BG51" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA51,对应表!$Z:$AA,2,FALSE)&amp;AB51,"")</f>
+        <v/>
+      </c>
+      <c r="BH51" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC51,对应表!$Z:$AA,2,FALSE)&amp;AD51,"")</f>
+        <v/>
+      </c>
+      <c r="BI51" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE51,对应表!$Z:$AA,2,FALSE)&amp;AF51,"")</f>
+        <v/>
+      </c>
+      <c r="BJ51" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG51,对应表!$Z:$AA,2,FALSE)&amp;AH51,"")</f>
+        <v/>
+      </c>
+      <c r="BM51" t="str">
+        <f t="shared" ref="BM51:BM56" si="99">IF(AB51="","",AB51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K52" t="str">
+        <f t="shared" si="90"/>
+        <v>回合结束加攻50</v>
+      </c>
+      <c r="L52" s="6" t="str">
+        <f>Q52&amp;":"&amp;M52&amp;":"&amp;VLOOKUP(N52,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O52="",0,O52)</f>
+        <v>300048:100:1:0</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>300048</v>
+      </c>
+      <c r="R52" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="S52" s="4" t="str">
+        <f t="shared" si="91"/>
+        <v>回合结束加攻50</v>
+      </c>
+      <c r="T52" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z52">
+        <v>50</v>
+      </c>
+      <c r="AI52" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v>ATK_P:50</v>
+      </c>
+      <c r="AR52">
+        <v>9999</v>
+      </c>
+      <c r="AS52">
+        <v>1</v>
+      </c>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AZ52" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="BA52" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="BB52" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="BC52" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="BD52" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="BE52" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="BF52" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y52,对应表!$Z:$AA,2,FALSE)&amp;Z52,"")</f>
+        <v>ATK_P:50</v>
+      </c>
+      <c r="BG52" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA52,对应表!$Z:$AA,2,FALSE)&amp;AB52,"")</f>
+        <v/>
+      </c>
+      <c r="BH52" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC52,对应表!$Z:$AA,2,FALSE)&amp;AD52,"")</f>
+        <v/>
+      </c>
+      <c r="BI52" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE52,对应表!$Z:$AA,2,FALSE)&amp;AF52,"")</f>
+        <v/>
+      </c>
+      <c r="BJ52" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG52,对应表!$Z:$AA,2,FALSE)&amp;AH52,"")</f>
+        <v/>
+      </c>
+      <c r="BM52" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K53" t="str">
+        <f t="shared" si="90"/>
+        <v>回合结束加攻60</v>
+      </c>
+      <c r="L53" s="6" t="str">
+        <f>Q53&amp;":"&amp;M53&amp;":"&amp;VLOOKUP(N53,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O53="",0,O53)</f>
+        <v>300049:100:1:0</v>
+      </c>
+      <c r="M53">
+        <v>100</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>300049</v>
+      </c>
+      <c r="R53" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="S53" s="4" t="str">
+        <f t="shared" si="91"/>
+        <v>回合结束加攻60</v>
+      </c>
+      <c r="T53" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z53">
+        <v>60</v>
+      </c>
+      <c r="AI53" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v>ATK_P:60</v>
+      </c>
+      <c r="AR53">
+        <v>9999</v>
+      </c>
+      <c r="AS53">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AZ53" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="BA53" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="BB53" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="BC53" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="BD53" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="BE53" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="BF53" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y53,对应表!$Z:$AA,2,FALSE)&amp;Z53,"")</f>
+        <v>ATK_P:60</v>
+      </c>
+      <c r="BG53" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA53,对应表!$Z:$AA,2,FALSE)&amp;AB53,"")</f>
+        <v/>
+      </c>
+      <c r="BH53" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC53,对应表!$Z:$AA,2,FALSE)&amp;AD53,"")</f>
+        <v/>
+      </c>
+      <c r="BI53" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE53,对应表!$Z:$AA,2,FALSE)&amp;AF53,"")</f>
+        <v/>
+      </c>
+      <c r="BJ53" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG53,对应表!$Z:$AA,2,FALSE)&amp;AH53,"")</f>
+        <v/>
+      </c>
+      <c r="BM53" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K54" t="str">
+        <f t="shared" si="90"/>
+        <v>回合结束加攻70</v>
+      </c>
+      <c r="L54" s="6" t="str">
+        <f>Q54&amp;":"&amp;M54&amp;":"&amp;VLOOKUP(N54,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O54="",0,O54)</f>
+        <v>300050:100:1:0</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>300050</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="S54" s="4" t="str">
+        <f t="shared" si="91"/>
+        <v>回合结束加攻70</v>
+      </c>
+      <c r="T54" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z54">
+        <v>70</v>
+      </c>
+      <c r="AI54" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v>ATK_P:70</v>
+      </c>
+      <c r="AR54">
+        <v>9999</v>
+      </c>
+      <c r="AS54">
+        <v>1</v>
+      </c>
+      <c r="AU54" s="4"/>
+      <c r="AV54" s="4"/>
+      <c r="AW54" s="4"/>
+      <c r="AX54" s="4"/>
+      <c r="AZ54" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="BA54" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="BB54" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="BC54" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="BD54" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="BE54" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="BF54" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y54,对应表!$Z:$AA,2,FALSE)&amp;Z54,"")</f>
+        <v>ATK_P:70</v>
+      </c>
+      <c r="BG54" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA54,对应表!$Z:$AA,2,FALSE)&amp;AB54,"")</f>
+        <v/>
+      </c>
+      <c r="BH54" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC54,对应表!$Z:$AA,2,FALSE)&amp;AD54,"")</f>
+        <v/>
+      </c>
+      <c r="BI54" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE54,对应表!$Z:$AA,2,FALSE)&amp;AF54,"")</f>
+        <v/>
+      </c>
+      <c r="BJ54" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG54,对应表!$Z:$AA,2,FALSE)&amp;AH54,"")</f>
+        <v/>
+      </c>
+      <c r="BM54" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K55" t="str">
+        <f t="shared" si="90"/>
+        <v>回合结束加攻80</v>
+      </c>
+      <c r="L55" s="6" t="str">
+        <f>Q55&amp;":"&amp;M55&amp;":"&amp;VLOOKUP(N55,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O55="",0,O55)</f>
+        <v>300051:100:1:0</v>
+      </c>
+      <c r="M55">
+        <v>100</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>300051</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="S55" s="4" t="str">
+        <f t="shared" si="91"/>
+        <v>回合结束加攻80</v>
+      </c>
+      <c r="T55" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z55">
+        <v>80</v>
+      </c>
+      <c r="AI55" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v>ATK_P:80</v>
+      </c>
+      <c r="AR55">
+        <v>9999</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AU55" s="4"/>
+      <c r="AV55" s="4"/>
+      <c r="AW55" s="4"/>
+      <c r="AX55" s="4"/>
+      <c r="AZ55" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="BA55" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="BB55" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="BC55" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="BD55" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="BE55" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="BF55" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y55,对应表!$Z:$AA,2,FALSE)&amp;Z55,"")</f>
+        <v>ATK_P:80</v>
+      </c>
+      <c r="BG55" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA55,对应表!$Z:$AA,2,FALSE)&amp;AB55,"")</f>
+        <v/>
+      </c>
+      <c r="BH55" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC55,对应表!$Z:$AA,2,FALSE)&amp;AD55,"")</f>
+        <v/>
+      </c>
+      <c r="BI55" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE55,对应表!$Z:$AA,2,FALSE)&amp;AF55,"")</f>
+        <v/>
+      </c>
+      <c r="BJ55" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG55,对应表!$Z:$AA,2,FALSE)&amp;AH55,"")</f>
+        <v/>
+      </c>
+      <c r="BM55" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K56" t="str">
+        <f t="shared" si="90"/>
+        <v>回合结束加攻90</v>
+      </c>
+      <c r="L56" s="6" t="str">
+        <f>Q56&amp;":"&amp;M56&amp;":"&amp;VLOOKUP(N56,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O56="",0,O56)</f>
+        <v>300052:100:1:0</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>300052</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="S56" s="4" t="str">
+        <f t="shared" si="91"/>
+        <v>回合结束加攻90</v>
+      </c>
+      <c r="T56" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z56">
+        <v>90</v>
+      </c>
+      <c r="AI56" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v>ATK_P:90</v>
+      </c>
+      <c r="AR56">
+        <v>9999</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="4"/>
+      <c r="AV56" s="4"/>
+      <c r="AW56" s="4"/>
+      <c r="AX56" s="4"/>
+      <c r="AZ56" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="BA56" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="BB56" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+      <c r="BC56" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v/>
+      </c>
+      <c r="BD56" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="BE56" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v/>
+      </c>
+      <c r="BF56" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y56,对应表!$Z:$AA,2,FALSE)&amp;Z56,"")</f>
+        <v>ATK_P:90</v>
+      </c>
+      <c r="BG56" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA56,对应表!$Z:$AA,2,FALSE)&amp;AB56,"")</f>
+        <v/>
+      </c>
+      <c r="BH56" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC56,对应表!$Z:$AA,2,FALSE)&amp;AD56,"")</f>
+        <v/>
+      </c>
+      <c r="BI56" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE56,对应表!$Z:$AA,2,FALSE)&amp;AF56,"")</f>
+        <v/>
+      </c>
+      <c r="BJ56" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG56,对应表!$Z:$AA,2,FALSE)&amp;AH56,"")</f>
+        <v/>
+      </c>
+      <c r="BM56" t="str">
+        <f t="shared" si="99"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K57" t="str">
+        <f t="shared" ref="K57:K58" si="100">R57</f>
+        <v>回合结束加攻100</v>
+      </c>
+      <c r="L57" s="6" t="str">
+        <f>Q57&amp;":"&amp;M57&amp;":"&amp;VLOOKUP(N57,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O57="",0,O57)</f>
+        <v>300053:100:1:0</v>
+      </c>
+      <c r="M57">
+        <v>100</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>300053</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="S57" s="4" t="str">
+        <f t="shared" ref="S57:S58" si="101">R57</f>
+        <v>回合结束加攻100</v>
+      </c>
+      <c r="T57" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z57">
+        <v>100</v>
+      </c>
+      <c r="AI57" s="12" t="str">
+        <f t="shared" ref="AI57:AI58" si="102">IF(BF57="","",BF57)&amp;IF(BG57="","","|"&amp;BG57)&amp;IF(BH57="","","|"&amp;BH57)&amp;IF(BI57="","","|"&amp;BI57)&amp;IF(BJ57="","","|"&amp;BJ57)</f>
+        <v>ATK_P:100</v>
+      </c>
+      <c r="AR57">
+        <v>9999</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AU57" s="4"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="4"/>
+      <c r="AZ57" s="12" t="str">
+        <f t="shared" ref="AZ57:AZ58" si="103">IF(BA57="","",BA57)&amp;IF(BB57="","","|"&amp;BB57)&amp;IF(BC57="","","|"&amp;BC57)&amp;IF(BD57="","","|"&amp;BD57)&amp;IF(BE57="","","|"&amp;BE57)</f>
+        <v/>
+      </c>
+      <c r="BA57" s="12" t="str">
+        <f t="shared" ref="BA57:BA58" si="104">IF(_xlfn.IFNA(VLOOKUP(AU57,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU57,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB57" s="12" t="str">
+        <f t="shared" ref="BB57:BB58" si="105">IF(_xlfn.IFNA(VLOOKUP(AV57,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV57,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC57" s="12" t="str">
+        <f t="shared" ref="BC57:BC58" si="106">IF(_xlfn.IFNA(VLOOKUP(AW57,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW57,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD57" s="12" t="str">
+        <f t="shared" ref="BD57:BD58" si="107">IF(_xlfn.IFNA(VLOOKUP(AX57,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX57,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE57" s="12" t="str">
+        <f t="shared" ref="BE57:BE58" si="108">IF(_xlfn.IFNA(VLOOKUP(AY57,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY57,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF57" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y57,对应表!$Z:$AA,2,FALSE)&amp;Z57,"")</f>
+        <v>ATK_P:100</v>
+      </c>
+      <c r="BG57" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA57,对应表!$Z:$AA,2,FALSE)&amp;AB57,"")</f>
+        <v/>
+      </c>
+      <c r="BH57" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC57,对应表!$Z:$AA,2,FALSE)&amp;AD57,"")</f>
+        <v/>
+      </c>
+      <c r="BI57" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE57,对应表!$Z:$AA,2,FALSE)&amp;AF57,"")</f>
+        <v/>
+      </c>
+      <c r="BJ57" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG57,对应表!$Z:$AA,2,FALSE)&amp;AH57,"")</f>
+        <v/>
+      </c>
+      <c r="BM57" t="str">
+        <f t="shared" ref="BM57:BM58" si="109">IF(AB57="","",AB57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K58" t="str">
+        <f t="shared" si="100"/>
+        <v>回合结束加攻150</v>
+      </c>
+      <c r="L58" s="6" t="str">
+        <f>Q58&amp;":"&amp;M58&amp;":"&amp;VLOOKUP(N58,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O58="",0,O58)</f>
+        <v>300054:100:1:0</v>
+      </c>
+      <c r="M58">
+        <v>100</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>300054</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="S58" s="4" t="str">
+        <f t="shared" si="101"/>
+        <v>回合结束加攻150</v>
+      </c>
+      <c r="T58" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z58">
+        <v>150</v>
+      </c>
+      <c r="AI58" s="12" t="str">
+        <f t="shared" si="102"/>
+        <v>ATK_P:150</v>
+      </c>
+      <c r="AR58">
+        <v>9999</v>
+      </c>
+      <c r="AS58">
+        <v>1</v>
+      </c>
+      <c r="AU58" s="4"/>
+      <c r="AV58" s="4"/>
+      <c r="AW58" s="4"/>
+      <c r="AX58" s="4"/>
+      <c r="AZ58" s="12" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="BA58" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+      <c r="BB58" s="12" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="BC58" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v/>
+      </c>
+      <c r="BD58" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="BE58" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v/>
+      </c>
+      <c r="BF58" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y58,对应表!$Z:$AA,2,FALSE)&amp;Z58,"")</f>
+        <v>ATK_P:150</v>
+      </c>
+      <c r="BG58" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA58,对应表!$Z:$AA,2,FALSE)&amp;AB58,"")</f>
+        <v/>
+      </c>
+      <c r="BH58" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC58,对应表!$Z:$AA,2,FALSE)&amp;AD58,"")</f>
+        <v/>
+      </c>
+      <c r="BI58" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE58,对应表!$Z:$AA,2,FALSE)&amp;AF58,"")</f>
+        <v/>
+      </c>
+      <c r="BJ58" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG58,对应表!$Z:$AA,2,FALSE)&amp;AH58,"")</f>
+        <v/>
+      </c>
+      <c r="BM58" t="str">
+        <f t="shared" si="109"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K59" t="str">
+        <f t="shared" ref="K59:K60" si="110">R59</f>
+        <v>回合结束加攻200</v>
+      </c>
+      <c r="L59" s="6" t="str">
+        <f>Q59&amp;":"&amp;M59&amp;":"&amp;VLOOKUP(N59,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O59="",0,O59)</f>
+        <v>300055:100:1:0</v>
+      </c>
+      <c r="M59">
+        <v>100</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>300055</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="S59" s="4" t="str">
+        <f t="shared" ref="S59:S60" si="111">R59</f>
+        <v>回合结束加攻200</v>
+      </c>
+      <c r="T59" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z59">
+        <v>200</v>
+      </c>
+      <c r="AI59" s="12" t="str">
+        <f t="shared" ref="AI59:AI60" si="112">IF(BF59="","",BF59)&amp;IF(BG59="","","|"&amp;BG59)&amp;IF(BH59="","","|"&amp;BH59)&amp;IF(BI59="","","|"&amp;BI59)&amp;IF(BJ59="","","|"&amp;BJ59)</f>
+        <v>ATK_P:200</v>
+      </c>
+      <c r="AR59">
+        <v>9999</v>
+      </c>
+      <c r="AS59">
+        <v>1</v>
+      </c>
+      <c r="AU59" s="4"/>
+      <c r="AV59" s="4"/>
+      <c r="AW59" s="4"/>
+      <c r="AX59" s="4"/>
+      <c r="AZ59" s="12" t="str">
+        <f t="shared" ref="AZ59:AZ60" si="113">IF(BA59="","",BA59)&amp;IF(BB59="","","|"&amp;BB59)&amp;IF(BC59="","","|"&amp;BC59)&amp;IF(BD59="","","|"&amp;BD59)&amp;IF(BE59="","","|"&amp;BE59)</f>
+        <v/>
+      </c>
+      <c r="BA59" s="12" t="str">
+        <f t="shared" ref="BA59:BA60" si="114">IF(_xlfn.IFNA(VLOOKUP(AU59,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU59,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB59" s="12" t="str">
+        <f t="shared" ref="BB59:BB60" si="115">IF(_xlfn.IFNA(VLOOKUP(AV59,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV59,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC59" s="12" t="str">
+        <f t="shared" ref="BC59:BC60" si="116">IF(_xlfn.IFNA(VLOOKUP(AW59,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW59,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD59" s="12" t="str">
+        <f t="shared" ref="BD59:BD60" si="117">IF(_xlfn.IFNA(VLOOKUP(AX59,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX59,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE59" s="12" t="str">
+        <f t="shared" ref="BE59:BE60" si="118">IF(_xlfn.IFNA(VLOOKUP(AY59,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY59,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF59" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y59,对应表!$Z:$AA,2,FALSE)&amp;Z59,"")</f>
+        <v>ATK_P:200</v>
+      </c>
+      <c r="BG59" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA59,对应表!$Z:$AA,2,FALSE)&amp;AB59,"")</f>
+        <v/>
+      </c>
+      <c r="BH59" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC59,对应表!$Z:$AA,2,FALSE)&amp;AD59,"")</f>
+        <v/>
+      </c>
+      <c r="BI59" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE59,对应表!$Z:$AA,2,FALSE)&amp;AF59,"")</f>
+        <v/>
+      </c>
+      <c r="BJ59" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG59,对应表!$Z:$AA,2,FALSE)&amp;AH59,"")</f>
+        <v/>
+      </c>
+      <c r="BM59" t="str">
+        <f t="shared" ref="BM59:BM60" si="119">IF(AB59="","",AB59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K60" t="str">
+        <f t="shared" si="110"/>
+        <v>永久免疫流血</v>
+      </c>
+      <c r="L60" s="6" t="str">
+        <f>Q60&amp;":"&amp;M60&amp;":"&amp;VLOOKUP(N60,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O60="",0,O60)</f>
+        <v>300056:100:1:0</v>
+      </c>
+      <c r="M60">
+        <v>100</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>300056</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="S60" s="4" t="str">
+        <f t="shared" si="111"/>
+        <v>永久免疫流血</v>
+      </c>
+      <c r="T60" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI60" s="12" t="str">
+        <f t="shared" si="112"/>
+        <v/>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>9999</v>
+      </c>
+      <c r="AS60">
+        <v>1</v>
+      </c>
+      <c r="AU60" s="4"/>
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="4"/>
+      <c r="AX60" s="4"/>
+      <c r="AZ60" s="12" t="str">
+        <f t="shared" si="113"/>
+        <v/>
+      </c>
+      <c r="BA60" s="12" t="str">
+        <f t="shared" si="114"/>
+        <v/>
+      </c>
+      <c r="BB60" s="12" t="str">
+        <f t="shared" si="115"/>
+        <v/>
+      </c>
+      <c r="BC60" s="12" t="str">
+        <f t="shared" si="116"/>
+        <v/>
+      </c>
+      <c r="BD60" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
+      <c r="BE60" s="12" t="str">
+        <f t="shared" si="118"/>
+        <v/>
+      </c>
+      <c r="BF60" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y60,对应表!$Z:$AA,2,FALSE)&amp;Z60,"")</f>
+        <v/>
+      </c>
+      <c r="BG60" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA60,对应表!$Z:$AA,2,FALSE)&amp;AB60,"")</f>
+        <v/>
+      </c>
+      <c r="BH60" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC60,对应表!$Z:$AA,2,FALSE)&amp;AD60,"")</f>
+        <v/>
+      </c>
+      <c r="BI60" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE60,对应表!$Z:$AA,2,FALSE)&amp;AF60,"")</f>
+        <v/>
+      </c>
+      <c r="BJ60" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG60,对应表!$Z:$AA,2,FALSE)&amp;AH60,"")</f>
+        <v/>
+      </c>
+      <c r="BM60" t="str">
+        <f t="shared" si="119"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K61" t="str">
+        <f t="shared" ref="K61" si="120">R61</f>
+        <v>永久免疫眩晕</v>
+      </c>
+      <c r="L61" s="6" t="str">
+        <f>Q61&amp;":"&amp;M61&amp;":"&amp;VLOOKUP(N61,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O61="",0,O61)</f>
+        <v>300057:100:1:0</v>
+      </c>
+      <c r="M61">
+        <v>100</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>300057</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="S61" s="4" t="str">
+        <f t="shared" ref="S61" si="121">R61</f>
+        <v>永久免疫眩晕</v>
+      </c>
+      <c r="T61" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI61" s="12" t="str">
+        <f t="shared" ref="AI61" si="122">IF(BF61="","",BF61)&amp;IF(BG61="","","|"&amp;BG61)&amp;IF(BH61="","","|"&amp;BH61)&amp;IF(BI61="","","|"&amp;BI61)&amp;IF(BJ61="","","|"&amp;BJ61)</f>
+        <v/>
+      </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>9999</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AU61" s="4"/>
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="4"/>
+      <c r="AZ61" s="12" t="str">
+        <f t="shared" ref="AZ61" si="123">IF(BA61="","",BA61)&amp;IF(BB61="","","|"&amp;BB61)&amp;IF(BC61="","","|"&amp;BC61)&amp;IF(BD61="","","|"&amp;BD61)&amp;IF(BE61="","","|"&amp;BE61)</f>
+        <v/>
+      </c>
+      <c r="BA61" s="12" t="str">
+        <f t="shared" ref="BA61" si="124">IF(_xlfn.IFNA(VLOOKUP(AU61,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU61,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB61" s="12" t="str">
+        <f t="shared" ref="BB61" si="125">IF(_xlfn.IFNA(VLOOKUP(AV61,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV61,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC61" s="12" t="str">
+        <f t="shared" ref="BC61" si="126">IF(_xlfn.IFNA(VLOOKUP(AW61,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW61,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD61" s="12" t="str">
+        <f t="shared" ref="BD61" si="127">IF(_xlfn.IFNA(VLOOKUP(AX61,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX61,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE61" s="12" t="str">
+        <f t="shared" ref="BE61" si="128">IF(_xlfn.IFNA(VLOOKUP(AY61,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY61,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF61" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y61,对应表!$Z:$AA,2,FALSE)&amp;Z61,"")</f>
+        <v/>
+      </c>
+      <c r="BG61" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA61,对应表!$Z:$AA,2,FALSE)&amp;AB61,"")</f>
+        <v/>
+      </c>
+      <c r="BH61" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC61,对应表!$Z:$AA,2,FALSE)&amp;AD61,"")</f>
+        <v/>
+      </c>
+      <c r="BI61" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE61,对应表!$Z:$AA,2,FALSE)&amp;AF61,"")</f>
+        <v/>
+      </c>
+      <c r="BJ61" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG61,对应表!$Z:$AA,2,FALSE)&amp;AH61,"")</f>
+        <v/>
+      </c>
+      <c r="BM61" t="str">
+        <f t="shared" ref="BM61" si="129">IF(AB61="","",AB61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K62" t="str">
+        <f t="shared" ref="K62" si="130">R62</f>
+        <v>永久免疫混乱</v>
+      </c>
+      <c r="L62" s="6" t="str">
+        <f>Q62&amp;":"&amp;M62&amp;":"&amp;VLOOKUP(N62,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O62="",0,O62)</f>
+        <v>300058:100:1:0</v>
+      </c>
+      <c r="M62">
+        <v>100</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>300058</v>
+      </c>
+      <c r="R62" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="S62" s="4" t="str">
+        <f t="shared" ref="S62" si="131">R62</f>
+        <v>永久免疫混乱</v>
+      </c>
+      <c r="T62" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI62" s="12" t="str">
+        <f t="shared" ref="AI62" si="132">IF(BF62="","",BF62)&amp;IF(BG62="","","|"&amp;BG62)&amp;IF(BH62="","","|"&amp;BH62)&amp;IF(BI62="","","|"&amp;BI62)&amp;IF(BJ62="","","|"&amp;BJ62)</f>
+        <v/>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AR62">
+        <v>9999</v>
+      </c>
+      <c r="AS62">
+        <v>1</v>
+      </c>
+      <c r="AU62" s="4"/>
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AZ62" s="12" t="str">
+        <f t="shared" ref="AZ62" si="133">IF(BA62="","",BA62)&amp;IF(BB62="","","|"&amp;BB62)&amp;IF(BC62="","","|"&amp;BC62)&amp;IF(BD62="","","|"&amp;BD62)&amp;IF(BE62="","","|"&amp;BE62)</f>
+        <v/>
+      </c>
+      <c r="BA62" s="12" t="str">
+        <f t="shared" ref="BA62" si="134">IF(_xlfn.IFNA(VLOOKUP(AU62,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU62,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB62" s="12" t="str">
+        <f t="shared" ref="BB62" si="135">IF(_xlfn.IFNA(VLOOKUP(AV62,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV62,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC62" s="12" t="str">
+        <f t="shared" ref="BC62" si="136">IF(_xlfn.IFNA(VLOOKUP(AW62,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW62,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD62" s="12" t="str">
+        <f t="shared" ref="BD62" si="137">IF(_xlfn.IFNA(VLOOKUP(AX62,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX62,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE62" s="12" t="str">
+        <f t="shared" ref="BE62" si="138">IF(_xlfn.IFNA(VLOOKUP(AY62,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY62,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF62" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y62,对应表!$Z:$AA,2,FALSE)&amp;Z62,"")</f>
+        <v/>
+      </c>
+      <c r="BG62" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA62,对应表!$Z:$AA,2,FALSE)&amp;AB62,"")</f>
+        <v/>
+      </c>
+      <c r="BH62" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC62,对应表!$Z:$AA,2,FALSE)&amp;AD62,"")</f>
+        <v/>
+      </c>
+      <c r="BI62" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE62,对应表!$Z:$AA,2,FALSE)&amp;AF62,"")</f>
+        <v/>
+      </c>
+      <c r="BJ62" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG62,对应表!$Z:$AA,2,FALSE)&amp;AH62,"")</f>
+        <v/>
+      </c>
+      <c r="BM62" t="str">
+        <f t="shared" ref="BM62" si="139">IF(AB62="","",AB62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="11:65" x14ac:dyDescent="0.15">
+      <c r="K63" t="str">
+        <f t="shared" ref="K63" si="140">R63</f>
+        <v>永久免疫负面状态</v>
+      </c>
+      <c r="L63" s="6" t="str">
+        <f>Q63&amp;":"&amp;M63&amp;":"&amp;VLOOKUP(N63,对应表!B:C,2,FALSE)&amp;":"&amp;IF(buff!O63="",0,O63)</f>
+        <v>300059:100:1:0</v>
+      </c>
+      <c r="M63">
+        <v>100</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>300059</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="S63" s="4" t="str">
+        <f t="shared" ref="S63" si="141">R63</f>
+        <v>永久免疫负面状态</v>
+      </c>
+      <c r="T63" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI63" s="12" t="str">
+        <f t="shared" ref="AI63" si="142">IF(BF63="","",BF63)&amp;IF(BG63="","","|"&amp;BG63)&amp;IF(BH63="","","|"&amp;BH63)&amp;IF(BI63="","","|"&amp;BI63)&amp;IF(BJ63="","","|"&amp;BJ63)</f>
+        <v/>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AR63">
+        <v>9999</v>
+      </c>
+      <c r="AS63">
+        <v>1</v>
+      </c>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AZ63" s="12" t="str">
+        <f t="shared" ref="AZ63" si="143">IF(BA63="","",BA63)&amp;IF(BB63="","","|"&amp;BB63)&amp;IF(BC63="","","|"&amp;BC63)&amp;IF(BD63="","","|"&amp;BD63)&amp;IF(BE63="","","|"&amp;BE63)</f>
+        <v/>
+      </c>
+      <c r="BA63" s="12" t="str">
+        <f t="shared" ref="BA63" si="144">IF(_xlfn.IFNA(VLOOKUP(AU63,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AU63,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BB63" s="12" t="str">
+        <f t="shared" ref="BB63" si="145">IF(_xlfn.IFNA(VLOOKUP(AV63,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AV63,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BC63" s="12" t="str">
+        <f t="shared" ref="BC63" si="146">IF(_xlfn.IFNA(VLOOKUP(AW63,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AW63,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BD63" s="12" t="str">
+        <f t="shared" ref="BD63" si="147">IF(_xlfn.IFNA(VLOOKUP(AX63,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AX63,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BE63" s="12" t="str">
+        <f t="shared" ref="BE63" si="148">IF(_xlfn.IFNA(VLOOKUP(AY63,$K:$L,2,FALSE),"")=0,"",_xlfn.IFNA(VLOOKUP(AY63,$K:$L,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="BF63" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(Y63,对应表!$Z:$AA,2,FALSE)&amp;Z63,"")</f>
+        <v/>
+      </c>
+      <c r="BG63" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AA63,对应表!$Z:$AA,2,FALSE)&amp;AB63,"")</f>
+        <v/>
+      </c>
+      <c r="BH63" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AC63,对应表!$Z:$AA,2,FALSE)&amp;AD63,"")</f>
+        <v/>
+      </c>
+      <c r="BI63" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AE63,对应表!$Z:$AA,2,FALSE)&amp;AF63,"")</f>
+        <v/>
+      </c>
+      <c r="BJ63" s="12" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(AG63,对应表!$Z:$AA,2,FALSE)&amp;AH63,"")</f>
+        <v/>
+      </c>
+      <c r="BM63" t="str">
+        <f t="shared" ref="BM63" si="149">IF(AB63="","",AB63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="11:65" x14ac:dyDescent="0.15">
       <c r="N64" s="1"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
@@ -16949,10 +21790,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17072,6 +21913,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f>被动技能!G8</f>
+        <v>200003</v>
+      </c>
+      <c r="B6" t="str">
+        <f>被动技能!H8</f>
+        <v>毒躯</v>
+      </c>
+      <c r="C6" t="str">
+        <f>被动技能!I8</f>
+        <v>被攻击时，攻击者中毒</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(被动技能!J8,对应表!R:S,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>被动技能!K8</f>
+        <v>300043:100:2:0</v>
+      </c>
+      <c r="F6">
+        <f>被动技能!L8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f>被动技能!G9</f>
+        <v>200004</v>
+      </c>
+      <c r="B7" t="str">
+        <f>被动技能!H9</f>
+        <v>每回合加攻200</v>
+      </c>
+      <c r="C7" t="str">
+        <f>被动技能!I9</f>
+        <v>每回合攻击增加</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(被动技能!J9,对应表!R:S,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>被动技能!K9</f>
+        <v>300055:100:1:0</v>
+      </c>
+      <c r="F7">
+        <f>被动技能!L9</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17080,10 +21973,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -19017,6 +23910,1422 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
+        <f>主动技能!B21</f>
+        <v>20010001</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f>主动技能!H21</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f>主动技能!I21</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D18" s="4">
+        <f>VLOOKUP(主动技能!J21,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <f>VLOOKUP(主动技能!K21,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f>VLOOKUP(主动技能!L21,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f>IF(主动技能!M21="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <f>主动技能!N21</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="4">
+        <f>主动技能!O21</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="21" t="str">
+        <f>主动技能!P21</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K18" s="21">
+        <f>主动技能!Q21</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <f>主动技能!R21</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <f>主动技能!S21</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <f>IF(主动技能!T21="","",主动技能!T21)</f>
+        <v/>
+      </c>
+      <c r="O18" s="21" t="str">
+        <f>IF(主动技能!U21="","",主动技能!U21)</f>
+        <v/>
+      </c>
+      <c r="P18" s="21" t="str">
+        <f>IF(主动技能!V21="","",主动技能!V21)</f>
+        <v/>
+      </c>
+      <c r="Q18" s="21" t="str">
+        <f>IF(主动技能!W21="","",主动技能!W21)</f>
+        <v/>
+      </c>
+      <c r="R18" s="21" t="str">
+        <f>IF(主动技能!X21="","",主动技能!X21)</f>
+        <v/>
+      </c>
+      <c r="S18" s="21">
+        <f>主动技能!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
+        <f>主动技能!Z21</f>
+        <v>100</v>
+      </c>
+      <c r="U18" s="21">
+        <f>主动技能!AB21</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="21">
+        <f>主动技能!AC21</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="21">
+        <f>主动技能!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="26">
+        <f>主动技能!AE21</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="26">
+        <f>主动技能!AF21</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="26">
+        <f>主动技能!AG21</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="26" t="str">
+        <f>主动技能!AH21</f>
+        <v>attack</v>
+      </c>
+      <c r="AB18" s="26" t="str">
+        <f>IF(主动技能!AI21="","")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="26">
+        <f>主动技能!AJ21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
+        <f>主动技能!B22</f>
+        <v>20010002</v>
+      </c>
+      <c r="B19" s="4" t="str">
+        <f>主动技能!H22</f>
+        <v>群体大治疗</v>
+      </c>
+      <c r="C19" s="4" t="str">
+        <f>主动技能!I22</f>
+        <v>对己方全体进行治疗</v>
+      </c>
+      <c r="D19" s="4">
+        <f>VLOOKUP(主动技能!J22,对应表!F:G,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <f>VLOOKUP(主动技能!K22,对应表!J:K,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <f>VLOOKUP(主动技能!L22,对应表!N:O,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="G19" s="4">
+        <f>IF(主动技能!M22="必中",2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <f>主动技能!N22</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f>主动技能!O22</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="21" t="str">
+        <f>主动技能!P22</f>
+        <v>eff_erxingguangquan||eff_huichunshu|</v>
+      </c>
+      <c r="K19" s="21">
+        <f>主动技能!Q22</f>
+        <v>2</v>
+      </c>
+      <c r="L19" s="21">
+        <f>主动技能!R22</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <f>主动技能!S22</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <f>IF(主动技能!T22="","",主动技能!T22)</f>
+        <v>300015:100:2:0</v>
+      </c>
+      <c r="O19" s="21" t="str">
+        <f>IF(主动技能!U22="","",主动技能!U22)</f>
+        <v/>
+      </c>
+      <c r="P19" s="21" t="str">
+        <f>IF(主动技能!V22="","",主动技能!V22)</f>
+        <v/>
+      </c>
+      <c r="Q19" s="21" t="str">
+        <f>IF(主动技能!W22="","",主动技能!W22)</f>
+        <v/>
+      </c>
+      <c r="R19" s="21" t="str">
+        <f>IF(主动技能!X22="","",主动技能!X22)</f>
+        <v/>
+      </c>
+      <c r="S19" s="21">
+        <f>主动技能!Y22</f>
+        <v>50</v>
+      </c>
+      <c r="T19" s="21">
+        <f>主动技能!Z22</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <f>主动技能!AB22</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="21">
+        <f>主动技能!AC22</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="21">
+        <f>主动技能!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="26">
+        <f>主动技能!AE22</f>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="26">
+        <f>主动技能!AF22</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="26">
+        <f>主动技能!AG22</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="26" t="str">
+        <f>主动技能!AH22</f>
+        <v>attackex</v>
+      </c>
+      <c r="AB19" s="26" t="str">
+        <f>IF(主动技能!AI22="","")</f>
+        <v/>
+      </c>
+      <c r="AC19" s="26">
+        <f>主动技能!AJ22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
+        <f>主动技能!B23</f>
+        <v>20011001</v>
+      </c>
+      <c r="B20" s="4" t="str">
+        <f>主动技能!H23</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C20" s="4" t="str">
+        <f>主动技能!I23</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D20" s="4">
+        <f>VLOOKUP(主动技能!J23,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <f>VLOOKUP(主动技能!K23,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <f>VLOOKUP(主动技能!L23,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <f>IF(主动技能!M23="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <f>主动技能!N23</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="4">
+        <f>主动技能!O23</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="str">
+        <f>主动技能!P23</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K20" s="21">
+        <f>主动技能!Q23</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
+        <f>主动技能!R23</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <f>主动技能!S23</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="21" t="str">
+        <f>IF(主动技能!T23="","",主动技能!T23)</f>
+        <v/>
+      </c>
+      <c r="O20" s="21" t="str">
+        <f>IF(主动技能!U23="","",主动技能!U23)</f>
+        <v/>
+      </c>
+      <c r="P20" s="21" t="str">
+        <f>IF(主动技能!V23="","",主动技能!V23)</f>
+        <v/>
+      </c>
+      <c r="Q20" s="21" t="str">
+        <f>IF(主动技能!W23="","",主动技能!W23)</f>
+        <v/>
+      </c>
+      <c r="R20" s="21" t="str">
+        <f>IF(主动技能!X23="","",主动技能!X23)</f>
+        <v/>
+      </c>
+      <c r="S20" s="21">
+        <f>主动技能!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
+        <f>主动技能!Z23</f>
+        <v>100</v>
+      </c>
+      <c r="U20" s="21">
+        <f>主动技能!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="21">
+        <f>主动技能!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="21">
+        <f>主动技能!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="26">
+        <f>主动技能!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="26">
+        <f>主动技能!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="26">
+        <f>主动技能!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="26" t="str">
+        <f>主动技能!AH23</f>
+        <v>attack</v>
+      </c>
+      <c r="AB20" s="26" t="str">
+        <f>IF(主动技能!AI23="","")</f>
+        <v/>
+      </c>
+      <c r="AC20" s="26">
+        <f>主动技能!AJ23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21">
+        <f>主动技能!B24</f>
+        <v>20011002</v>
+      </c>
+      <c r="B21" s="4" t="str">
+        <f>主动技能!H24</f>
+        <v>群体中毒</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f>主动技能!I24</f>
+        <v>使敌方全体中毒。</v>
+      </c>
+      <c r="D21" s="4">
+        <f>VLOOKUP(主动技能!J24,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <f>VLOOKUP(主动技能!K24,对应表!J:K,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <f>VLOOKUP(主动技能!L24,对应表!N:O,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <f>IF(主动技能!M24="必中",2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>主动技能!N24</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>主动技能!O24</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="21" t="str">
+        <f>主动技能!P24</f>
+        <v>eff_sixingguangquan||eff_zuzhou|</v>
+      </c>
+      <c r="K21" s="21">
+        <f>主动技能!Q24</f>
+        <v>3</v>
+      </c>
+      <c r="L21" s="21">
+        <f>主动技能!R24</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <f>主动技能!S24</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21" t="str">
+        <f>IF(主动技能!T24="","",主动技能!T24)</f>
+        <v>300042:100:2:0</v>
+      </c>
+      <c r="O21" s="21" t="str">
+        <f>IF(主动技能!U24="","",主动技能!U24)</f>
+        <v/>
+      </c>
+      <c r="P21" s="21" t="str">
+        <f>IF(主动技能!V24="","",主动技能!V24)</f>
+        <v/>
+      </c>
+      <c r="Q21" s="21" t="str">
+        <f>IF(主动技能!W24="","",主动技能!W24)</f>
+        <v/>
+      </c>
+      <c r="R21" s="21" t="str">
+        <f>IF(主动技能!X24="","",主动技能!X24)</f>
+        <v/>
+      </c>
+      <c r="S21" s="21">
+        <f>主动技能!Y24</f>
+        <v>50</v>
+      </c>
+      <c r="T21" s="21">
+        <f>主动技能!Z24</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <f>主动技能!AB24</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <f>主动技能!AC24</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="21">
+        <f>主动技能!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="26">
+        <f>主动技能!AE24</f>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="26">
+        <f>主动技能!AF24</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="26">
+        <f>主动技能!AG24</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="26" t="str">
+        <f>主动技能!AH24</f>
+        <v>attackex</v>
+      </c>
+      <c r="AB21" s="26" t="str">
+        <f>IF(主动技能!AI24="","")</f>
+        <v/>
+      </c>
+      <c r="AC21" s="26">
+        <f>主动技能!AJ24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21">
+        <f>主动技能!B25</f>
+        <v>20012001</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>主动技能!H25</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>主动技能!I25</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D22" s="4">
+        <f>VLOOKUP(主动技能!J25,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <f>VLOOKUP(主动技能!K25,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <f>VLOOKUP(主动技能!L25,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <f>IF(主动技能!M25="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <f>主动技能!N25</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="4">
+        <f>主动技能!O25</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="str">
+        <f>主动技能!P25</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K22" s="21">
+        <f>主动技能!Q25</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="21">
+        <f>主动技能!R25</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <f>主动技能!S25</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="21" t="str">
+        <f>IF(主动技能!T25="","",主动技能!T25)</f>
+        <v/>
+      </c>
+      <c r="O22" s="21" t="str">
+        <f>IF(主动技能!U25="","",主动技能!U25)</f>
+        <v/>
+      </c>
+      <c r="P22" s="21" t="str">
+        <f>IF(主动技能!V25="","",主动技能!V25)</f>
+        <v/>
+      </c>
+      <c r="Q22" s="21" t="str">
+        <f>IF(主动技能!W25="","",主动技能!W25)</f>
+        <v/>
+      </c>
+      <c r="R22" s="21" t="str">
+        <f>IF(主动技能!X25="","",主动技能!X25)</f>
+        <v/>
+      </c>
+      <c r="S22" s="21">
+        <f>主动技能!Y25</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
+        <f>主动技能!Z25</f>
+        <v>100</v>
+      </c>
+      <c r="U22" s="21">
+        <f>主动技能!AB25</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <f>主动技能!AC25</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <f>主动技能!AD25</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="26">
+        <f>主动技能!AE25</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="26">
+        <f>主动技能!AF25</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="26">
+        <f>主动技能!AG25</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="26" t="str">
+        <f>主动技能!AH25</f>
+        <v>attack</v>
+      </c>
+      <c r="AB22" s="26" t="str">
+        <f>IF(主动技能!AI25="","")</f>
+        <v/>
+      </c>
+      <c r="AC22" s="26">
+        <f>主动技能!AJ25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
+        <f>主动技能!B26</f>
+        <v>20013001</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <f>主动技能!H26</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C23" s="4" t="str">
+        <f>主动技能!I26</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D23" s="4">
+        <f>VLOOKUP(主动技能!J26,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <f>VLOOKUP(主动技能!K26,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <f>VLOOKUP(主动技能!L26,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <f>IF(主动技能!M26="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <f>主动技能!N26</f>
+        <v>100</v>
+      </c>
+      <c r="I23" s="4">
+        <f>主动技能!O26</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="str">
+        <f>主动技能!P26</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K23" s="21">
+        <f>主动技能!Q26</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <f>主动技能!R26</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <f>主动技能!S26</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="21" t="str">
+        <f>IF(主动技能!T26="","",主动技能!T26)</f>
+        <v/>
+      </c>
+      <c r="O23" s="21" t="str">
+        <f>IF(主动技能!U26="","",主动技能!U26)</f>
+        <v/>
+      </c>
+      <c r="P23" s="21" t="str">
+        <f>IF(主动技能!V26="","",主动技能!V26)</f>
+        <v/>
+      </c>
+      <c r="Q23" s="21" t="str">
+        <f>IF(主动技能!W26="","",主动技能!W26)</f>
+        <v/>
+      </c>
+      <c r="R23" s="21" t="str">
+        <f>IF(主动技能!X26="","",主动技能!X26)</f>
+        <v/>
+      </c>
+      <c r="S23" s="21">
+        <f>主动技能!Y26</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <f>主动技能!Z26</f>
+        <v>100</v>
+      </c>
+      <c r="U23" s="21">
+        <f>主动技能!AB26</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <f>主动技能!AC26</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
+        <f>主动技能!AD26</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="26">
+        <f>主动技能!AE26</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="26">
+        <f>主动技能!AF26</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="26">
+        <f>主动技能!AG26</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="26" t="str">
+        <f>主动技能!AH26</f>
+        <v>attack</v>
+      </c>
+      <c r="AB23" s="26" t="str">
+        <f>IF(主动技能!AI26="","")</f>
+        <v/>
+      </c>
+      <c r="AC23" s="26">
+        <f>主动技能!AJ26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21">
+        <f>主动技能!B27</f>
+        <v>20014001</v>
+      </c>
+      <c r="B24" s="4" t="str">
+        <f>主动技能!H27</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f>主动技能!I27</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D24" s="4">
+        <f>VLOOKUP(主动技能!J27,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <f>VLOOKUP(主动技能!K27,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <f>VLOOKUP(主动技能!L27,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <f>IF(主动技能!M27="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <f>主动技能!N27</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="4">
+        <f>主动技能!O27</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="str">
+        <f>主动技能!P27</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K24" s="21">
+        <f>主动技能!Q27</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
+        <f>主动技能!R27</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <f>主动技能!S27</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="21" t="str">
+        <f>IF(主动技能!T27="","",主动技能!T27)</f>
+        <v/>
+      </c>
+      <c r="O24" s="21" t="str">
+        <f>IF(主动技能!U27="","",主动技能!U27)</f>
+        <v/>
+      </c>
+      <c r="P24" s="21" t="str">
+        <f>IF(主动技能!V27="","",主动技能!V27)</f>
+        <v/>
+      </c>
+      <c r="Q24" s="21" t="str">
+        <f>IF(主动技能!W27="","",主动技能!W27)</f>
+        <v/>
+      </c>
+      <c r="R24" s="21" t="str">
+        <f>IF(主动技能!X27="","",主动技能!X27)</f>
+        <v/>
+      </c>
+      <c r="S24" s="21">
+        <f>主动技能!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
+        <f>主动技能!Z27</f>
+        <v>100</v>
+      </c>
+      <c r="U24" s="21">
+        <f>主动技能!AB27</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="21">
+        <f>主动技能!AC27</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="21">
+        <f>主动技能!AD27</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="26">
+        <f>主动技能!AE27</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="26">
+        <f>主动技能!AF27</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="26">
+        <f>主动技能!AG27</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="26" t="str">
+        <f>主动技能!AH27</f>
+        <v>attack</v>
+      </c>
+      <c r="AB24" s="26" t="str">
+        <f>IF(主动技能!AI27="","")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="26">
+        <f>主动技能!AJ27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="21">
+        <f>主动技能!B28</f>
+        <v>20014002</v>
+      </c>
+      <c r="B25" s="4" t="str">
+        <f>主动技能!H28</f>
+        <v>单体眩晕</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f>主动技能!I28</f>
+        <v>单体眩晕</v>
+      </c>
+      <c r="D25" s="4">
+        <f>VLOOKUP(主动技能!J28,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <f>VLOOKUP(主动技能!K28,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <f>VLOOKUP(主动技能!L28,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <f>IF(主动技能!M28="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <f>主动技能!N28</f>
+        <v>100</v>
+      </c>
+      <c r="I25" s="4">
+        <f>主动技能!O28</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="str">
+        <f>主动技能!P28</f>
+        <v>eff_sixingguangquan||eff_shufu|</v>
+      </c>
+      <c r="K25" s="21">
+        <f>主动技能!Q28</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <f>主动技能!R28</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <f>主动技能!S28</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="21" t="str">
+        <f>IF(主动技能!T28="","",主动技能!T28)</f>
+        <v>300002:100:2:0</v>
+      </c>
+      <c r="O25" s="21" t="str">
+        <f>IF(主动技能!U28="","",主动技能!U28)</f>
+        <v/>
+      </c>
+      <c r="P25" s="21" t="str">
+        <f>IF(主动技能!V28="","",主动技能!V28)</f>
+        <v/>
+      </c>
+      <c r="Q25" s="21" t="str">
+        <f>IF(主动技能!W28="","",主动技能!W28)</f>
+        <v/>
+      </c>
+      <c r="R25" s="21" t="str">
+        <f>IF(主动技能!X28="","",主动技能!X28)</f>
+        <v/>
+      </c>
+      <c r="S25" s="21">
+        <f>主动技能!Y28</f>
+        <v>60</v>
+      </c>
+      <c r="T25" s="21">
+        <f>主动技能!Z28</f>
+        <v>100</v>
+      </c>
+      <c r="U25" s="21">
+        <f>主动技能!AB28</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="21">
+        <f>主动技能!AC28</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="21">
+        <f>主动技能!AD28</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="26">
+        <f>主动技能!AE28</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="26">
+        <f>主动技能!AF28</f>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="26">
+        <f>主动技能!AG28</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="26" t="str">
+        <f>主动技能!AH28</f>
+        <v>attack</v>
+      </c>
+      <c r="AB25" s="26" t="str">
+        <f>IF(主动技能!AI28="","")</f>
+        <v/>
+      </c>
+      <c r="AC25" s="26">
+        <f>主动技能!AJ28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21">
+        <f>主动技能!B29</f>
+        <v>20015001</v>
+      </c>
+      <c r="B26" s="4" t="str">
+        <f>主动技能!H29</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f>主动技能!I29</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D26" s="4">
+        <f>VLOOKUP(主动技能!J29,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <f>VLOOKUP(主动技能!K29,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <f>VLOOKUP(主动技能!L29,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <f>IF(主动技能!M29="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <f>主动技能!N29</f>
+        <v>100</v>
+      </c>
+      <c r="I26" s="4">
+        <f>主动技能!O29</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="21" t="str">
+        <f>主动技能!P29</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K26" s="21">
+        <f>主动技能!Q29</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="21">
+        <f>主动技能!R29</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <f>主动技能!S29</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="21" t="str">
+        <f>IF(主动技能!T29="","",主动技能!T29)</f>
+        <v/>
+      </c>
+      <c r="O26" s="21" t="str">
+        <f>IF(主动技能!U29="","",主动技能!U29)</f>
+        <v/>
+      </c>
+      <c r="P26" s="21" t="str">
+        <f>IF(主动技能!V29="","",主动技能!V29)</f>
+        <v/>
+      </c>
+      <c r="Q26" s="21" t="str">
+        <f>IF(主动技能!W29="","",主动技能!W29)</f>
+        <v/>
+      </c>
+      <c r="R26" s="21" t="str">
+        <f>IF(主动技能!X29="","",主动技能!X29)</f>
+        <v/>
+      </c>
+      <c r="S26" s="21">
+        <f>主动技能!Y29</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="21">
+        <f>主动技能!Z29</f>
+        <v>100</v>
+      </c>
+      <c r="U26" s="21">
+        <f>主动技能!AB29</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="21">
+        <f>主动技能!AC29</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="21">
+        <f>主动技能!AD29</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="26">
+        <f>主动技能!AE29</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="26">
+        <f>主动技能!AF29</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="26">
+        <f>主动技能!AG29</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="26" t="str">
+        <f>主动技能!AH29</f>
+        <v>attack</v>
+      </c>
+      <c r="AB26" s="26" t="str">
+        <f>IF(主动技能!AI29="","")</f>
+        <v/>
+      </c>
+      <c r="AC26" s="26">
+        <f>主动技能!AJ29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="21">
+        <f>主动技能!B30</f>
+        <v>20015002</v>
+      </c>
+      <c r="B27" s="4" t="str">
+        <f>主动技能!H30</f>
+        <v>单体大伤害</v>
+      </c>
+      <c r="C27" s="4" t="str">
+        <f>主动技能!I30</f>
+        <v>对敌方单体造成大伤害</v>
+      </c>
+      <c r="D27" s="4">
+        <f>VLOOKUP(主动技能!J30,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <f>VLOOKUP(主动技能!K30,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <f>VLOOKUP(主动技能!L30,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>IF(主动技能!M30="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <f>主动技能!N30</f>
+        <v>100</v>
+      </c>
+      <c r="I27" s="4">
+        <f>主动技能!O30</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="21" t="str">
+        <f>主动技能!P30</f>
+        <v>eff_sixingguangquan||eff_kuanglongci|</v>
+      </c>
+      <c r="K27" s="21">
+        <f>主动技能!Q30</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="21">
+        <f>主动技能!R30</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <f>主动技能!S30</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="21" t="str">
+        <f>IF(主动技能!T30="","",主动技能!T30)</f>
+        <v/>
+      </c>
+      <c r="O27" s="21" t="str">
+        <f>IF(主动技能!U30="","",主动技能!U30)</f>
+        <v/>
+      </c>
+      <c r="P27" s="21" t="str">
+        <f>IF(主动技能!V30="","",主动技能!V30)</f>
+        <v/>
+      </c>
+      <c r="Q27" s="21" t="str">
+        <f>IF(主动技能!W30="","",主动技能!W30)</f>
+        <v/>
+      </c>
+      <c r="R27" s="21" t="str">
+        <f>IF(主动技能!X30="","",主动技能!X30)</f>
+        <v/>
+      </c>
+      <c r="S27" s="21">
+        <f>主动技能!Y30</f>
+        <v>50</v>
+      </c>
+      <c r="T27" s="21">
+        <f>主动技能!Z30</f>
+        <v>150</v>
+      </c>
+      <c r="U27" s="21">
+        <f>主动技能!AB30</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="21">
+        <f>主动技能!AC30</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="21">
+        <f>主动技能!AD30</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="26">
+        <f>主动技能!AE30</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="26">
+        <f>主动技能!AF30</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="26">
+        <f>主动技能!AG30</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="26" t="str">
+        <f>主动技能!AH30</f>
+        <v>attackex</v>
+      </c>
+      <c r="AB27" s="26" t="str">
+        <f>IF(主动技能!AI30="","")</f>
+        <v/>
+      </c>
+      <c r="AC27" s="26">
+        <f>主动技能!AJ30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
+        <f>主动技能!B31</f>
+        <v>20016001</v>
+      </c>
+      <c r="B28" s="4" t="str">
+        <f>主动技能!H31</f>
+        <v>敌单体</v>
+      </c>
+      <c r="C28" s="4" t="str">
+        <f>主动技能!I31</f>
+        <v>对敌方单体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D28" s="4">
+        <f>VLOOKUP(主动技能!J31,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <f>VLOOKUP(主动技能!K31,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <f>VLOOKUP(主动技能!L31,对应表!N:O,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <f>IF(主动技能!M31="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <f>主动技能!N31</f>
+        <v>100</v>
+      </c>
+      <c r="I28" s="4">
+        <f>主动技能!O31</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="21" t="str">
+        <f>主动技能!P31</f>
+        <v>eff_yixingguangquan|||</v>
+      </c>
+      <c r="K28" s="21">
+        <f>主动技能!Q31</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="21">
+        <f>主动技能!R31</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <f>主动技能!S31</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="21" t="str">
+        <f>IF(主动技能!T31="","",主动技能!T31)</f>
+        <v/>
+      </c>
+      <c r="O28" s="21" t="str">
+        <f>IF(主动技能!U31="","",主动技能!U31)</f>
+        <v/>
+      </c>
+      <c r="P28" s="21" t="str">
+        <f>IF(主动技能!V31="","",主动技能!V31)</f>
+        <v/>
+      </c>
+      <c r="Q28" s="21" t="str">
+        <f>IF(主动技能!W31="","",主动技能!W31)</f>
+        <v/>
+      </c>
+      <c r="R28" s="21" t="str">
+        <f>IF(主动技能!X31="","",主动技能!X31)</f>
+        <v/>
+      </c>
+      <c r="S28" s="21">
+        <f>主动技能!Y31</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
+        <f>主动技能!Z31</f>
+        <v>100</v>
+      </c>
+      <c r="U28" s="21">
+        <f>主动技能!AB31</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="21">
+        <f>主动技能!AC31</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="21">
+        <f>主动技能!AD31</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="26">
+        <f>主动技能!AE31</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="26">
+        <f>主动技能!AF31</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="26">
+        <f>主动技能!AG31</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="26" t="str">
+        <f>主动技能!AH31</f>
+        <v>attack</v>
+      </c>
+      <c r="AB28" s="26" t="str">
+        <f>IF(主动技能!AI31="","")</f>
+        <v/>
+      </c>
+      <c r="AC28" s="26">
+        <f>主动技能!AJ31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21">
+        <f>主动技能!B32</f>
+        <v>20017001</v>
+      </c>
+      <c r="B29" s="4" t="str">
+        <f>主动技能!H32</f>
+        <v>敌全体</v>
+      </c>
+      <c r="C29" s="4" t="str">
+        <f>主动技能!I32</f>
+        <v>对敌方全体攻击，造成100%攻击力伤害。</v>
+      </c>
+      <c r="D29" s="4">
+        <f>VLOOKUP(主动技能!J32,对应表!F:G,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <f>VLOOKUP(主动技能!K32,对应表!J:K,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <f>VLOOKUP(主动技能!L32,对应表!N:O,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="G29" s="4">
+        <f>IF(主动技能!M32="必中",2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <f>主动技能!N32</f>
+        <v>100</v>
+      </c>
+      <c r="I29" s="4">
+        <f>主动技能!O32</f>
+        <v>100</v>
+      </c>
+      <c r="J29" s="21" t="str">
+        <f>主动技能!P32</f>
+        <v>eff_sixingguangquan||eff_xuepiaoqianli|</v>
+      </c>
+      <c r="K29" s="21">
+        <f>主动技能!Q32</f>
+        <v>3</v>
+      </c>
+      <c r="L29" s="21">
+        <f>主动技能!R32</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <f>主动技能!S32</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="21" t="str">
+        <f>IF(主动技能!T32="","",主动技能!T32)</f>
+        <v/>
+      </c>
+      <c r="O29" s="21" t="str">
+        <f>IF(主动技能!U32="","",主动技能!U32)</f>
+        <v/>
+      </c>
+      <c r="P29" s="21" t="str">
+        <f>IF(主动技能!V32="","",主动技能!V32)</f>
+        <v/>
+      </c>
+      <c r="Q29" s="21" t="str">
+        <f>IF(主动技能!W32="","",主动技能!W32)</f>
+        <v/>
+      </c>
+      <c r="R29" s="21" t="str">
+        <f>IF(主动技能!X32="","",主动技能!X32)</f>
+        <v/>
+      </c>
+      <c r="S29" s="21">
+        <f>主动技能!Y32</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="21">
+        <f>主动技能!Z32</f>
+        <v>100</v>
+      </c>
+      <c r="U29" s="21">
+        <f>主动技能!AB32</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="21">
+        <f>主动技能!AC32</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="21">
+        <f>主动技能!AD32</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="26">
+        <f>主动技能!AE32</f>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="26">
+        <f>主动技能!AF32</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="26">
+        <f>主动技能!AG32</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="26" t="str">
+        <f>主动技能!AH32</f>
+        <v>attack</v>
+      </c>
+      <c r="AB29" s="26" t="str">
+        <f>IF(主动技能!AI32="","")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="26">
+        <f>主动技能!AJ32</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19025,10 +25334,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22845,6 +29154,1124 @@
         <v/>
       </c>
     </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f>buff!Q47</f>
+        <v>300043</v>
+      </c>
+      <c r="B46" t="str">
+        <f>buff!R47</f>
+        <v>毒躯</v>
+      </c>
+      <c r="C46" t="str">
+        <f>buff!S47</f>
+        <v>毒躯</v>
+      </c>
+      <c r="D46">
+        <f>VLOOKUP(buff!T47,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>buff!U47</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>buff!V47</f>
+        <v>-10</v>
+      </c>
+      <c r="G46">
+        <f>buff!W47</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>buff!X47</f>
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f>buff!AI47</f>
+        <v/>
+      </c>
+      <c r="J46">
+        <f>buff!AJ47</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>buff!AK47</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>buff!AL47</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f>buff!AM47</f>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f>buff!AN47</f>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>buff!AO47</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f>buff!AP47</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f>buff!AQ47</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f>buff!AR47</f>
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <f>buff!AS47</f>
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <f>buff!AT47</f>
+        <v>0</v>
+      </c>
+      <c r="U46" t="str">
+        <f>buff!AZ47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <f>buff!Q48</f>
+        <v>300044</v>
+      </c>
+      <c r="B47" t="str">
+        <f>buff!R48</f>
+        <v>回合结束加攻10</v>
+      </c>
+      <c r="C47" t="str">
+        <f>buff!S48</f>
+        <v>回合结束加攻10</v>
+      </c>
+      <c r="D47">
+        <f>VLOOKUP(buff!T48,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <f>buff!U48</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>buff!V48</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>buff!W48</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>buff!X48</f>
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f>buff!AI48</f>
+        <v>ATK_P:10</v>
+      </c>
+      <c r="J47">
+        <f>buff!AJ48</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>buff!AK48</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f>buff!AL48</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>buff!AM48</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>buff!AN48</f>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f>buff!AO48</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>buff!AP48</f>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f>buff!AQ48</f>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f>buff!AR48</f>
+        <v>9999</v>
+      </c>
+      <c r="S47">
+        <f>buff!AS48</f>
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <f>buff!AT48</f>
+        <v>0</v>
+      </c>
+      <c r="U47" t="str">
+        <f>buff!AZ48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f>buff!Q49</f>
+        <v>300045</v>
+      </c>
+      <c r="B48" t="str">
+        <f>buff!R49</f>
+        <v>回合结束加攻20</v>
+      </c>
+      <c r="C48" t="str">
+        <f>buff!S49</f>
+        <v>回合结束加攻20</v>
+      </c>
+      <c r="D48">
+        <f>VLOOKUP(buff!T49,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <f>buff!U49</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>buff!V49</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>buff!W49</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>buff!X49</f>
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f>buff!AI49</f>
+        <v>ATK_P:20</v>
+      </c>
+      <c r="J48">
+        <f>buff!AJ49</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f>buff!AK49</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f>buff!AL49</f>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f>buff!AM49</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f>buff!AN49</f>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f>buff!AO49</f>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f>buff!AP49</f>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f>buff!AQ49</f>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f>buff!AR49</f>
+        <v>9999</v>
+      </c>
+      <c r="S48">
+        <f>buff!AS49</f>
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <f>buff!AT49</f>
+        <v>0</v>
+      </c>
+      <c r="U48" t="str">
+        <f>buff!AZ49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f>buff!Q50</f>
+        <v>300046</v>
+      </c>
+      <c r="B49" t="str">
+        <f>buff!R50</f>
+        <v>回合结束加攻30</v>
+      </c>
+      <c r="C49" t="str">
+        <f>buff!S50</f>
+        <v>回合结束加攻30</v>
+      </c>
+      <c r="D49">
+        <f>VLOOKUP(buff!T50,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <f>buff!U50</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>buff!V50</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>buff!W50</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>buff!X50</f>
+        <v>0</v>
+      </c>
+      <c r="I49" t="str">
+        <f>buff!AI50</f>
+        <v>ATK_P:30</v>
+      </c>
+      <c r="J49">
+        <f>buff!AJ50</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f>buff!AK50</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f>buff!AL50</f>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f>buff!AM50</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f>buff!AN50</f>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f>buff!AO50</f>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f>buff!AP50</f>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f>buff!AQ50</f>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f>buff!AR50</f>
+        <v>9999</v>
+      </c>
+      <c r="S49">
+        <f>buff!AS50</f>
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <f>buff!AT50</f>
+        <v>0</v>
+      </c>
+      <c r="U49" t="str">
+        <f>buff!AZ50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f>buff!Q51</f>
+        <v>300047</v>
+      </c>
+      <c r="B50" t="str">
+        <f>buff!R51</f>
+        <v>回合结束加攻40</v>
+      </c>
+      <c r="C50" t="str">
+        <f>buff!S51</f>
+        <v>回合结束加攻40</v>
+      </c>
+      <c r="D50">
+        <f>VLOOKUP(buff!T51,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <f>buff!U51</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>buff!V51</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>buff!W51</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>buff!X51</f>
+        <v>0</v>
+      </c>
+      <c r="I50" t="str">
+        <f>buff!AI51</f>
+        <v>ATK_P:40</v>
+      </c>
+      <c r="J50">
+        <f>buff!AJ51</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>buff!AK51</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f>buff!AL51</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f>buff!AM51</f>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f>buff!AN51</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>buff!AO51</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>buff!AP51</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>buff!AQ51</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>buff!AR51</f>
+        <v>9999</v>
+      </c>
+      <c r="S50">
+        <f>buff!AS51</f>
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <f>buff!AT51</f>
+        <v>0</v>
+      </c>
+      <c r="U50" t="str">
+        <f>buff!AZ51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <f>buff!Q52</f>
+        <v>300048</v>
+      </c>
+      <c r="B51" t="str">
+        <f>buff!R52</f>
+        <v>回合结束加攻50</v>
+      </c>
+      <c r="C51" t="str">
+        <f>buff!S52</f>
+        <v>回合结束加攻50</v>
+      </c>
+      <c r="D51">
+        <f>VLOOKUP(buff!T52,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <f>buff!U52</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>buff!V52</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>buff!W52</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>buff!X52</f>
+        <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <f>buff!AI52</f>
+        <v>ATK_P:50</v>
+      </c>
+      <c r="J51">
+        <f>buff!AJ52</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f>buff!AK52</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>buff!AL52</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f>buff!AM52</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f>buff!AN52</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f>buff!AO52</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>buff!AP52</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>buff!AQ52</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>buff!AR52</f>
+        <v>9999</v>
+      </c>
+      <c r="S51">
+        <f>buff!AS52</f>
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <f>buff!AT52</f>
+        <v>0</v>
+      </c>
+      <c r="U51" t="str">
+        <f>buff!AZ52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f>buff!Q53</f>
+        <v>300049</v>
+      </c>
+      <c r="B52" t="str">
+        <f>buff!R53</f>
+        <v>回合结束加攻60</v>
+      </c>
+      <c r="C52" t="str">
+        <f>buff!S53</f>
+        <v>回合结束加攻60</v>
+      </c>
+      <c r="D52">
+        <f>VLOOKUP(buff!T53,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f>buff!U53</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>buff!V53</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>buff!W53</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>buff!X53</f>
+        <v>0</v>
+      </c>
+      <c r="I52" t="str">
+        <f>buff!AI53</f>
+        <v>ATK_P:60</v>
+      </c>
+      <c r="J52">
+        <f>buff!AJ53</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>buff!AK53</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f>buff!AL53</f>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f>buff!AM53</f>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f>buff!AN53</f>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>buff!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>buff!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>buff!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>buff!AR53</f>
+        <v>9999</v>
+      </c>
+      <c r="S52">
+        <f>buff!AS53</f>
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <f>buff!AT53</f>
+        <v>0</v>
+      </c>
+      <c r="U52" t="str">
+        <f>buff!AZ53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <f>buff!Q54</f>
+        <v>300050</v>
+      </c>
+      <c r="B53" t="str">
+        <f>buff!R54</f>
+        <v>回合结束加攻70</v>
+      </c>
+      <c r="C53" t="str">
+        <f>buff!S54</f>
+        <v>回合结束加攻70</v>
+      </c>
+      <c r="D53">
+        <f>VLOOKUP(buff!T54,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <f>buff!U54</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>buff!V54</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>buff!W54</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>buff!X54</f>
+        <v>0</v>
+      </c>
+      <c r="I53" t="str">
+        <f>buff!AI54</f>
+        <v>ATK_P:70</v>
+      </c>
+      <c r="J53">
+        <f>buff!AJ54</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f>buff!AK54</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f>buff!AL54</f>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f>buff!AM54</f>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f>buff!AN54</f>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f>buff!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>buff!AP54</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>buff!AQ54</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>buff!AR54</f>
+        <v>9999</v>
+      </c>
+      <c r="S53">
+        <f>buff!AS54</f>
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <f>buff!AT54</f>
+        <v>0</v>
+      </c>
+      <c r="U53" t="str">
+        <f>buff!AZ54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <f>buff!Q55</f>
+        <v>300051</v>
+      </c>
+      <c r="B54" t="str">
+        <f>buff!R55</f>
+        <v>回合结束加攻80</v>
+      </c>
+      <c r="C54" t="str">
+        <f>buff!S55</f>
+        <v>回合结束加攻80</v>
+      </c>
+      <c r="D54">
+        <f>VLOOKUP(buff!T55,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <f>buff!U55</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>buff!V55</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>buff!W55</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>buff!X55</f>
+        <v>0</v>
+      </c>
+      <c r="I54" t="str">
+        <f>buff!AI55</f>
+        <v>ATK_P:80</v>
+      </c>
+      <c r="J54">
+        <f>buff!AJ55</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>buff!AK55</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f>buff!AL55</f>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f>buff!AM55</f>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f>buff!AN55</f>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>buff!AO55</f>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f>buff!AP55</f>
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f>buff!AQ55</f>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f>buff!AR55</f>
+        <v>9999</v>
+      </c>
+      <c r="S54">
+        <f>buff!AS55</f>
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <f>buff!AT55</f>
+        <v>0</v>
+      </c>
+      <c r="U54" t="str">
+        <f>buff!AZ55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <f>buff!Q56</f>
+        <v>300052</v>
+      </c>
+      <c r="B55" t="str">
+        <f>buff!R56</f>
+        <v>回合结束加攻90</v>
+      </c>
+      <c r="C55" t="str">
+        <f>buff!S56</f>
+        <v>回合结束加攻90</v>
+      </c>
+      <c r="D55">
+        <f>VLOOKUP(buff!T56,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f>buff!U56</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>buff!V56</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>buff!W56</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>buff!X56</f>
+        <v>0</v>
+      </c>
+      <c r="I55" t="str">
+        <f>buff!AI56</f>
+        <v>ATK_P:90</v>
+      </c>
+      <c r="J55">
+        <f>buff!AJ56</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>buff!AK56</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f>buff!AL56</f>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f>buff!AM56</f>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f>buff!AN56</f>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f>buff!AO56</f>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f>buff!AP56</f>
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f>buff!AQ56</f>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f>buff!AR56</f>
+        <v>9999</v>
+      </c>
+      <c r="S55">
+        <f>buff!AS56</f>
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <f>buff!AT56</f>
+        <v>0</v>
+      </c>
+      <c r="U55" t="str">
+        <f>buff!AZ56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <f>buff!Q57</f>
+        <v>300053</v>
+      </c>
+      <c r="B56" t="str">
+        <f>buff!R57</f>
+        <v>回合结束加攻100</v>
+      </c>
+      <c r="C56" t="str">
+        <f>buff!S57</f>
+        <v>回合结束加攻100</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP(buff!T57,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f>buff!U57</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>buff!V57</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>buff!W57</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>buff!X57</f>
+        <v>0</v>
+      </c>
+      <c r="I56" t="str">
+        <f>buff!AI57</f>
+        <v>ATK_P:100</v>
+      </c>
+      <c r="J56">
+        <f>buff!AJ57</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>buff!AK57</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f>buff!AL57</f>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f>buff!AM57</f>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f>buff!AN57</f>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f>buff!AO57</f>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f>buff!AP57</f>
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f>buff!AQ57</f>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f>buff!AR57</f>
+        <v>9999</v>
+      </c>
+      <c r="S56">
+        <f>buff!AS57</f>
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <f>buff!AT57</f>
+        <v>0</v>
+      </c>
+      <c r="U56" t="str">
+        <f>buff!AZ57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <f>buff!Q58</f>
+        <v>300054</v>
+      </c>
+      <c r="B57" t="str">
+        <f>buff!R58</f>
+        <v>回合结束加攻150</v>
+      </c>
+      <c r="C57" t="str">
+        <f>buff!S58</f>
+        <v>回合结束加攻150</v>
+      </c>
+      <c r="D57">
+        <f>VLOOKUP(buff!T58,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f>buff!U58</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>buff!V58</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>buff!W58</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>buff!X58</f>
+        <v>0</v>
+      </c>
+      <c r="I57" t="str">
+        <f>buff!AI58</f>
+        <v>ATK_P:150</v>
+      </c>
+      <c r="J57">
+        <f>buff!AJ58</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>buff!AK58</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>buff!AL58</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f>buff!AM58</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f>buff!AN58</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f>buff!AO58</f>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f>buff!AP58</f>
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>buff!AQ58</f>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f>buff!AR58</f>
+        <v>9999</v>
+      </c>
+      <c r="S57">
+        <f>buff!AS58</f>
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <f>buff!AT58</f>
+        <v>0</v>
+      </c>
+      <c r="U57" t="str">
+        <f>buff!AZ58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <f>buff!Q59</f>
+        <v>300055</v>
+      </c>
+      <c r="B58" t="str">
+        <f>buff!R59</f>
+        <v>回合结束加攻200</v>
+      </c>
+      <c r="C58" t="str">
+        <f>buff!S59</f>
+        <v>回合结束加攻200</v>
+      </c>
+      <c r="D58">
+        <f>VLOOKUP(buff!T59,对应表!V:W,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <f>buff!U59</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>buff!V59</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>buff!W59</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>buff!X59</f>
+        <v>0</v>
+      </c>
+      <c r="I58" t="str">
+        <f>buff!AI59</f>
+        <v>ATK_P:200</v>
+      </c>
+      <c r="J58">
+        <f>buff!AJ59</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>buff!AK59</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f>buff!AL59</f>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f>buff!AM59</f>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f>buff!AN59</f>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>buff!AO59</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>buff!AP59</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>buff!AQ59</f>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f>buff!AR59</f>
+        <v>9999</v>
+      </c>
+      <c r="S58">
+        <f>buff!AS59</f>
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <f>buff!AT59</f>
+        <v>0</v>
+      </c>
+      <c r="U58" t="str">
+        <f>buff!AZ59</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/辅助总表/技能配置表/怪物技能配置表.xlsx
+++ b/辅助总表/技能配置表/怪物技能配置表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="16" r:id="rId1"/>
@@ -4250,7 +4250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -4283,6 +4283,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4563,8 +4564,8 @@
   <dimension ref="A1:AV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4576,13 +4577,11 @@
     <col min="6" max="6" width="10.83203125" style="29"/>
     <col min="7" max="7" width="20.6640625" style="21" customWidth="1"/>
     <col min="8" max="12" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="75.5" style="21" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="16.5" style="21" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="21" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5" style="21" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="42.5" style="21" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" style="21" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="21" customWidth="1"/>
+    <col min="13" max="13" width="75.5" style="21" customWidth="1"/>
+    <col min="14" max="17" width="16.5" style="21" customWidth="1"/>
+    <col min="18" max="18" width="40.5" style="21" customWidth="1"/>
+    <col min="19" max="19" width="42.5" style="21" customWidth="1"/>
+    <col min="20" max="21" width="16.5" style="21" customWidth="1"/>
     <col min="22" max="23" width="10.83203125" style="15" customWidth="1"/>
     <col min="24" max="24" width="12.5" style="15" customWidth="1"/>
     <col min="25" max="33" width="10.83203125" style="15" customWidth="1"/>
@@ -7441,11 +7440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -8276,7 +8275,7 @@
         <f>VLOOKUP(G9,角色!Q:T,主动技能!F9+1,FALSE)</f>
         <v>eff_sixingguangquan|eff_lanmeigui||</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="30">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -12222,7 +12221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
